--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D0F59-4A96-DC47-9EDD-7AE94A122EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088CA1F-B4E7-304C-A052-CEF21BD7FA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="SV Health" sheetId="1" r:id="rId1"/>
+    <sheet name="SV Health Investors, LLC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -113,17 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,9 +142,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0ED0BE-763C-6D4C-8358-322C45E67976}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
@@ -474,185 +466,180 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>229</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>510142</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>510142</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1"/>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>532</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>311490</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>311490</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>88786108</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>21098</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>907032</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>907032</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>10420</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>1488596</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1488596</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088CA1F-B4E7-304C-A052-CEF21BD7FA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E214E434-E1E6-0449-81A7-7DC8342E7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
@@ -35,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>nameOfIssuer</t>
   </si>
@@ -162,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0ED0BE-763C-6D4C-8358-322C45E67976}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,10 +503,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -511,14 +517,14 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>229</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>510142</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -526,19 +532,22 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>510142</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2000</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -546,14 +555,14 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>532</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>311490</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -561,34 +570,37 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>311490</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
         <v>88786108</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>21098</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>907032</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -596,34 +608,37 @@
       <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>907032</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2000</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
         <v>10420</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1488596</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -631,13 +646,168 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1488596</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>229</v>
+      </c>
+      <c r="F6">
+        <v>510142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>510142</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>532</v>
+      </c>
+      <c r="F7">
+        <v>311490</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>311490</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>88786108</v>
+      </c>
+      <c r="E8">
+        <v>21098</v>
+      </c>
+      <c r="F8">
+        <v>907032</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>907032</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>10420</v>
+      </c>
+      <c r="F9">
+        <v>1488596</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1488596</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
     </row>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E214E434-E1E6-0449-81A7-7DC8342E7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3356AF1D-DCCC-0647-B56D-3356ABD52DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
+    <workbookView xWindow="3560" yWindow="760" windowWidth="28060" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="SV Health Investors, LLC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -110,6 +110,69 @@
   </si>
   <si>
     <t>09075A108</t>
+  </si>
+  <si>
+    <t>ADAPTHEALTH CORP</t>
+  </si>
+  <si>
+    <t>00653Q102</t>
+  </si>
+  <si>
+    <t>SUTRO BIOPHARMA INC</t>
+  </si>
+  <si>
+    <t>DECIPHERA PHARMACEUTICALS INC</t>
+  </si>
+  <si>
+    <t>24344T101</t>
+  </si>
+  <si>
+    <t>MISONIX, INC.</t>
+  </si>
+  <si>
+    <t>Repligen Corporation</t>
+  </si>
+  <si>
+    <t>ADAPTHEALTH CORP.</t>
+  </si>
+  <si>
+    <t>AVROBIO INC</t>
+  </si>
+  <si>
+    <t>05455M100</t>
+  </si>
+  <si>
+    <t>TRANSENTERIX INC</t>
+  </si>
+  <si>
+    <t>89366M201</t>
+  </si>
+  <si>
+    <t>KALVISTA PHARMACEUTICALS INC</t>
+  </si>
+  <si>
+    <t>AMERICAN WELL CORP</t>
+  </si>
+  <si>
+    <t>03044L105</t>
+  </si>
+  <si>
+    <t>CATABASIS PHARMACEUTICALS IN</t>
+  </si>
+  <si>
+    <t>14875P206</t>
+  </si>
+  <si>
+    <t>OCULAR THERAPEUTIX INC</t>
+  </si>
+  <si>
+    <t>67576A100</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>X4 Pharmaceuticals</t>
   </si>
 </sst>
 </file>
@@ -461,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0ED0BE-763C-6D4C-8358-322C45E67976}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F6">
         <v>510142</v>
@@ -711,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="F7">
         <v>311490</v>
@@ -749,7 +812,7 @@
         <v>88786108</v>
       </c>
       <c r="E8">
-        <v>21098</v>
+        <v>15220</v>
       </c>
       <c r="F8">
         <v>907032</v>
@@ -787,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>10420</v>
+        <v>10152</v>
       </c>
       <c r="F9">
         <v>1488596</v>
@@ -808,6 +871,4277 @@
         <v>1488596</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>17933</v>
+      </c>
+      <c r="F10">
+        <v>994079</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>994079</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>319</v>
+      </c>
+      <c r="F11">
+        <v>510142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>510142</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>545</v>
+      </c>
+      <c r="F12">
+        <v>311490</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>311490</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>88786108</v>
+      </c>
+      <c r="E13">
+        <v>40248</v>
+      </c>
+      <c r="F13">
+        <v>917218</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>917218</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>20989</v>
+      </c>
+      <c r="F14">
+        <v>1488596</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1488596</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>20694</v>
+      </c>
+      <c r="F15">
+        <v>1290978</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1290978</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>566</v>
+      </c>
+      <c r="F16">
+        <v>510142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>510142</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>713</v>
+      </c>
+      <c r="F17">
+        <v>311490</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>311490</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>869367102</v>
+      </c>
+      <c r="E18">
+        <v>27149</v>
+      </c>
+      <c r="F18">
+        <v>1824542</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1824542</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>88786108</v>
+      </c>
+      <c r="E19">
+        <v>55888</v>
+      </c>
+      <c r="F19">
+        <v>918154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>918154</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2022</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>22909</v>
+      </c>
+      <c r="F20">
+        <v>1581031</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1581031</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>47480</v>
+      </c>
+      <c r="F21">
+        <v>1941118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1941118</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>944</v>
+      </c>
+      <c r="F22">
+        <v>510142</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>510142</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>15289</v>
+      </c>
+      <c r="F23">
+        <v>449951</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>449951</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>1648</v>
+      </c>
+      <c r="F24">
+        <v>311490</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>311490</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>869367102</v>
+      </c>
+      <c r="E25">
+        <v>34466</v>
+      </c>
+      <c r="F25">
+        <v>1824542</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1824542</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>88786108</v>
+      </c>
+      <c r="E26">
+        <v>59742</v>
+      </c>
+      <c r="F26">
+        <v>1436456</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1436456</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2021</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>604871103</v>
+      </c>
+      <c r="E27">
+        <v>42859</v>
+      </c>
+      <c r="F27">
+        <v>1694017</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1694017</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>45209</v>
+      </c>
+      <c r="F28">
+        <v>1941118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1941118</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>759916109</v>
+      </c>
+      <c r="E29">
+        <v>4203</v>
+      </c>
+      <c r="F29">
+        <v>14541</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>14541</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1618</v>
+      </c>
+      <c r="F30">
+        <v>510142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>510142</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>16473</v>
+      </c>
+      <c r="F31">
+        <v>449951</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>449951</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2025</v>
+      </c>
+      <c r="F32">
+        <v>311490</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>311490</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2021</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>869367102</v>
+      </c>
+      <c r="E33">
+        <v>33918</v>
+      </c>
+      <c r="F33">
+        <v>1824542</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1824542</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>88786108</v>
+      </c>
+      <c r="E34">
+        <v>58147</v>
+      </c>
+      <c r="F34">
+        <v>1915274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1915274</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>604871103</v>
+      </c>
+      <c r="E35">
+        <v>37574</v>
+      </c>
+      <c r="F35">
+        <v>1694017</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1694017</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>79809</v>
+      </c>
+      <c r="F36">
+        <v>2911677</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2911677</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>1658</v>
+      </c>
+      <c r="F37">
+        <v>510142</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>510142</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>20176</v>
+      </c>
+      <c r="F38">
+        <v>449951</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>449951</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>2682</v>
+      </c>
+      <c r="F39">
+        <v>311490</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>311490</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>3491</v>
+      </c>
+      <c r="F40">
+        <v>275034</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>275034</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>869367102</v>
+      </c>
+      <c r="E41">
+        <v>41527</v>
+      </c>
+      <c r="F41">
+        <v>1824542</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1824542</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2021</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>88786108</v>
+      </c>
+      <c r="E42">
+        <v>57209</v>
+      </c>
+      <c r="F42">
+        <v>1915274</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1915274</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>604871103</v>
+      </c>
+      <c r="E43">
+        <v>33186</v>
+      </c>
+      <c r="F43">
+        <v>1694017</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1694017</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>107033</v>
+      </c>
+      <c r="F44">
+        <v>2911677</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2911677</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2021</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>319</v>
+      </c>
+      <c r="F45">
+        <v>510142</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>510142</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>483497103</v>
+      </c>
+      <c r="E46">
+        <v>25679</v>
+      </c>
+      <c r="F46">
+        <v>1719576</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1719576</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>25679</v>
+      </c>
+      <c r="F47">
+        <v>449951</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>449951</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>2003</v>
+      </c>
+      <c r="F48">
+        <v>311490</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>311490</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>16612</v>
+      </c>
+      <c r="F49">
+        <v>1191676</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1191676</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>869367102</v>
+      </c>
+      <c r="E50">
+        <v>39611</v>
+      </c>
+      <c r="F50">
+        <v>1824542</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1824542</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2021</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>88786108</v>
+      </c>
+      <c r="E51">
+        <v>34379</v>
+      </c>
+      <c r="F51">
+        <v>1915274</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1915274</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2021</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>604871103</v>
+      </c>
+      <c r="E52">
+        <v>21175</v>
+      </c>
+      <c r="F52">
+        <v>1694017</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1694017</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2021</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>42115</v>
+      </c>
+      <c r="F53">
+        <v>1662646</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1662646</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2020</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>177</v>
+      </c>
+      <c r="F54">
+        <v>510142</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>510142</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2020</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>1769</v>
+      </c>
+      <c r="F55">
+        <v>285765</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>285765</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>483497103</v>
+      </c>
+      <c r="E56">
+        <v>21650</v>
+      </c>
+      <c r="F56">
+        <v>1719576</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1719576</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57">
+        <v>23083</v>
+      </c>
+      <c r="F57">
+        <v>449951</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>449951</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>2109</v>
+      </c>
+      <c r="F58">
+        <v>311490</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>311490</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59">
+        <v>16095</v>
+      </c>
+      <c r="F59">
+        <v>1236123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1236123</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>869367102</v>
+      </c>
+      <c r="E60">
+        <v>18337</v>
+      </c>
+      <c r="F60">
+        <v>1824542</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1824542</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>88786108</v>
+      </c>
+      <c r="E61">
+        <v>36486</v>
+      </c>
+      <c r="F61">
+        <v>1915274</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1915274</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>604871103</v>
+      </c>
+      <c r="E62">
+        <v>19894</v>
+      </c>
+      <c r="F62">
+        <v>1695969</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1695969</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2020</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63">
+        <v>57779</v>
+      </c>
+      <c r="F63">
+        <v>1949330</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1949330</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2020</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>276</v>
+      </c>
+      <c r="F64">
+        <v>510142</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>510142</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65">
+        <v>2600</v>
+      </c>
+      <c r="F65">
+        <v>312068</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>312068</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66">
+        <v>1837</v>
+      </c>
+      <c r="F66">
+        <v>285765</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>285765</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>483497103</v>
+      </c>
+      <c r="E67">
+        <v>20806</v>
+      </c>
+      <c r="F67">
+        <v>1719576</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1719576</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>26871</v>
+      </c>
+      <c r="F68">
+        <v>449951</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>449951</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>2904</v>
+      </c>
+      <c r="F69">
+        <v>311490</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>311490</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70">
+        <v>21570</v>
+      </c>
+      <c r="F70">
+        <v>1236123</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1236123</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>869367102</v>
+      </c>
+      <c r="E71">
+        <v>14158</v>
+      </c>
+      <c r="F71">
+        <v>1824542</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1824542</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>88786108</v>
+      </c>
+      <c r="E72">
+        <v>30147</v>
+      </c>
+      <c r="F72">
+        <v>1915274</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1915274</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>604871103</v>
+      </c>
+      <c r="E73">
+        <v>23014</v>
+      </c>
+      <c r="F73">
+        <v>1695969</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1695969</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74">
+        <v>179</v>
+      </c>
+      <c r="F74">
+        <v>510142</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>510142</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75">
+        <v>3110</v>
+      </c>
+      <c r="F75">
+        <v>628236</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>628236</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2020</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <v>1186</v>
+      </c>
+      <c r="F76">
+        <v>285765</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>285765</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>483497103</v>
+      </c>
+      <c r="E77">
+        <v>13155</v>
+      </c>
+      <c r="F77">
+        <v>1719576</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1719576</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>18525</v>
+      </c>
+      <c r="F78">
+        <v>449951</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>449951</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>3115</v>
+      </c>
+      <c r="F79">
+        <v>311490</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>311490</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80">
+        <v>19234</v>
+      </c>
+      <c r="F80">
+        <v>1236123</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1236123</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>869367102</v>
+      </c>
+      <c r="E81">
+        <v>18610</v>
+      </c>
+      <c r="F81">
+        <v>1824542</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1824542</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>88786108</v>
+      </c>
+      <c r="E82">
+        <v>26143</v>
+      </c>
+      <c r="F82">
+        <v>1915274</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1915274</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>604871103</v>
+      </c>
+      <c r="E83">
+        <v>15976</v>
+      </c>
+      <c r="F83">
+        <v>1695969</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1695969</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <v>750</v>
+      </c>
+      <c r="F84">
+        <v>510142</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>510142</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85">
+        <v>2482</v>
+      </c>
+      <c r="F85">
+        <v>628236</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>628236</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86">
+        <v>1689</v>
+      </c>
+      <c r="F86">
+        <v>285765</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>285765</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>483497103</v>
+      </c>
+      <c r="E87">
+        <v>30625</v>
+      </c>
+      <c r="F87">
+        <v>1719576</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1719576</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88">
+        <v>28005</v>
+      </c>
+      <c r="F88">
+        <v>449951</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>449951</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>3333</v>
+      </c>
+      <c r="F89">
+        <v>311490</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>311490</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90">
+        <v>28528</v>
+      </c>
+      <c r="F90">
+        <v>1417204</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1417204</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>869367102</v>
+      </c>
+      <c r="E91">
+        <v>20070</v>
+      </c>
+      <c r="F91">
+        <v>1824542</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1824542</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>88786108</v>
+      </c>
+      <c r="E92">
+        <v>18061</v>
+      </c>
+      <c r="F92">
+        <v>1915274</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1915274</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>604871103</v>
+      </c>
+      <c r="E93">
+        <v>31562</v>
+      </c>
+      <c r="F93">
+        <v>1695969</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1695969</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2019</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94">
+        <v>4112</v>
+      </c>
+      <c r="F94">
+        <v>6631832</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>6631832</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2019</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95">
+        <v>1910</v>
+      </c>
+      <c r="F95">
+        <v>628236</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>628236</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2019</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96">
+        <v>1543</v>
+      </c>
+      <c r="F96">
+        <v>285765</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>285765</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2019</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>483497103</v>
+      </c>
+      <c r="E97">
+        <v>19947</v>
+      </c>
+      <c r="F97">
+        <v>1719576</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1719576</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2019</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98">
+        <v>18401</v>
+      </c>
+      <c r="F98">
+        <v>542143</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>44</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>542143</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2019</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>3957</v>
+      </c>
+      <c r="F99">
+        <v>311490</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>44</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>311490</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2019</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100">
+        <v>20010</v>
+      </c>
+      <c r="F100">
+        <v>1417204</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>44</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1417204</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2019</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101">
+        <v>869367102</v>
+      </c>
+      <c r="E101">
+        <v>16584</v>
+      </c>
+      <c r="F101">
+        <v>1824542</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1824542</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2019</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>88786108</v>
+      </c>
+      <c r="E102">
+        <v>21815</v>
+      </c>
+      <c r="F102">
+        <v>1915274</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1915274</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103">
+        <v>604871103</v>
+      </c>
+      <c r="E103">
+        <v>34089</v>
+      </c>
+      <c r="F103">
+        <v>1695969</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1695969</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2019</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104">
+        <v>9019</v>
+      </c>
+      <c r="F104">
+        <v>6631832</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>6631832</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2019</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105">
+        <v>2764</v>
+      </c>
+      <c r="F105">
+        <v>628236</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>628236</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2019</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106">
+        <v>2306</v>
+      </c>
+      <c r="F106">
+        <v>285765</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>285765</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2019</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107">
+        <v>483497103</v>
+      </c>
+      <c r="E107">
+        <v>38088</v>
+      </c>
+      <c r="F107">
+        <v>1719576</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1719576</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2019</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108">
+        <v>20709</v>
+      </c>
+      <c r="F108">
+        <v>918337</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>918337</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2019</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>4672</v>
+      </c>
+      <c r="F109">
+        <v>311490</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>44</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>311490</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2019</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>31393</v>
+      </c>
+      <c r="F110">
+        <v>1930704</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>44</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1930704</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2019</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>869367102</v>
+      </c>
+      <c r="E111">
+        <v>20763</v>
+      </c>
+      <c r="F111">
+        <v>1824542</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1824542</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2019</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112">
+        <v>88786108</v>
+      </c>
+      <c r="E112">
+        <v>19268</v>
+      </c>
+      <c r="F112">
+        <v>1915274</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>44</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1915274</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2019</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113">
+        <v>15784</v>
+      </c>
+      <c r="F113">
+        <v>6631832</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>6631832</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2019</v>
+      </c>
+      <c r="B114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114">
+        <v>2494</v>
+      </c>
+      <c r="F114">
+        <v>628236</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>628236</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2019</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115">
+        <v>2263</v>
+      </c>
+      <c r="F115">
+        <v>285765</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>285765</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2019</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>483497103</v>
+      </c>
+      <c r="E116">
+        <v>52419</v>
+      </c>
+      <c r="F116">
+        <v>1831548</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1831548</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2019</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117">
+        <v>28739</v>
+      </c>
+      <c r="F117">
+        <v>1238198</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1238198</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2019</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>5423</v>
+      </c>
+      <c r="F118">
+        <v>311490</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>44</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>311490</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2019</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>42572</v>
+      </c>
+      <c r="F119">
+        <v>1930704</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1930704</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2019</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120">
+        <v>869367102</v>
+      </c>
+      <c r="E120">
+        <v>20781</v>
+      </c>
+      <c r="F120">
+        <v>1824542</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1824542</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2022</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>229</v>
+      </c>
+      <c r="F121">
+        <v>510142</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>510142</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2022</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>532</v>
+      </c>
+      <c r="F122">
+        <v>311490</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>311490</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2022</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>88786108</v>
+      </c>
+      <c r="E123">
+        <v>21098</v>
+      </c>
+      <c r="F123">
+        <v>907032</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>907032</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2022</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124">
+        <v>10420</v>
+      </c>
+      <c r="F124">
+        <v>1488596</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1488596</v>
+      </c>
+      <c r="L124">
         <v>0</v>
       </c>
     </row>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3356AF1D-DCCC-0647-B56D-3356ABD52DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AD1F02-6A24-5742-AEC3-D6C1AF2F0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="760" windowWidth="28060" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="65">
   <si>
     <t>Year</t>
   </si>
@@ -173,6 +173,63 @@
   </si>
   <si>
     <t>X4 Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>14875P107</t>
+  </si>
+  <si>
+    <t>RESHAPE LIFE SCIENCES INC</t>
+  </si>
+  <si>
+    <t>29365M505</t>
+  </si>
+  <si>
+    <t>ARSANIS INC</t>
+  </si>
+  <si>
+    <t>ENTELLUS MED INC</t>
+  </si>
+  <si>
+    <t>29363K105</t>
+  </si>
+  <si>
+    <t>LOMBARD MED INC</t>
+  </si>
+  <si>
+    <t>G55598109</t>
+  </si>
+  <si>
+    <t>RAPTOR PHARMACEUTICAL CORP</t>
+  </si>
+  <si>
+    <t>75382F106</t>
+  </si>
+  <si>
+    <t>OPHTHOTECH CORPORATION</t>
+  </si>
+  <si>
+    <t>SOLE</t>
+  </si>
+  <si>
+    <t>TRANSENTERIX, INC.</t>
+  </si>
+  <si>
+    <t>OCULAR THERAPEUTIX, INC.</t>
+  </si>
+  <si>
+    <t>ENTELLUS MEDICAL, INC.</t>
+  </si>
+  <si>
+    <t>CATABASIS PHARMACEUTICALS, INC.</t>
+  </si>
+  <si>
+    <t>LOMBARD MEDICAL, INC.</t>
+  </si>
+  <si>
+    <t>ENTELLUS MEDICAL INC</t>
+  </si>
+  <si>
+    <t>OPHTHOTECH CORP</t>
   </si>
 </sst>
 </file>
@@ -524,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0ED0BE-763C-6D4C-8358-322C45E67976}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +629,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -610,7 +667,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -648,7 +705,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -686,7 +743,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1116,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>566</v>
+        <v>229</v>
       </c>
       <c r="F16">
         <v>510142</v>
@@ -1154,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>713</v>
+        <v>532</v>
       </c>
       <c r="F17">
         <v>311490</v>
@@ -1183,19 +1240,19 @@
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>869367102</v>
+        <v>88786108</v>
       </c>
       <c r="E18">
-        <v>27149</v>
+        <v>21098</v>
       </c>
       <c r="F18">
-        <v>1824542</v>
+        <v>907032</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -1210,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1824542</v>
+        <v>907032</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1221,19 +1278,19 @@
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>55888</v>
+        <v>10420</v>
       </c>
       <c r="F19">
-        <v>918154</v>
+        <v>1488596</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -1248,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>918154</v>
+        <v>1488596</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,19 +1316,19 @@
         <v>2022</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>22909</v>
+        <v>203</v>
       </c>
       <c r="F20">
-        <v>1581031</v>
+        <v>510142</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
@@ -1286,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1581031</v>
+        <v>510142</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1297,19 +1354,19 @@
         <v>2022</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>47480</v>
+        <v>300</v>
       </c>
       <c r="F21">
-        <v>1941118</v>
+        <v>311490</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -1324,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1941118</v>
+        <v>311490</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1332,22 +1389,22 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>88786108</v>
       </c>
       <c r="E22">
-        <v>944</v>
+        <v>15220</v>
       </c>
       <c r="F22">
-        <v>510142</v>
+        <v>907032</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
@@ -1362,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>510142</v>
+        <v>907032</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1370,22 +1427,22 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>15289</v>
+        <v>10152</v>
       </c>
       <c r="F23">
-        <v>449951</v>
+        <v>1488596</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
@@ -1400,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>449951</v>
+        <v>1488596</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1408,22 +1465,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>1648</v>
+        <v>17933</v>
       </c>
       <c r="F24">
-        <v>311490</v>
+        <v>994079</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
@@ -1438,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>311490</v>
+        <v>994079</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1446,22 +1503,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>869367102</v>
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>34466</v>
+        <v>319</v>
       </c>
       <c r="F25">
-        <v>1824542</v>
+        <v>510142</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
@@ -1476,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1824542</v>
+        <v>510142</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1484,22 +1541,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>59742</v>
+        <v>545</v>
       </c>
       <c r="F26">
-        <v>1436456</v>
+        <v>311490</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
@@ -1514,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1436456</v>
+        <v>311490</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1522,22 +1579,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>604871103</v>
+        <v>88786108</v>
       </c>
       <c r="E27">
-        <v>42859</v>
+        <v>40248</v>
       </c>
       <c r="F27">
-        <v>1694017</v>
+        <v>917218</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -1552,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1694017</v>
+        <v>917218</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1560,22 +1617,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>45209</v>
+        <v>20989</v>
       </c>
       <c r="F28">
-        <v>1941118</v>
+        <v>1488596</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
@@ -1590,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1941118</v>
+        <v>1488596</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1598,22 +1655,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D29">
-        <v>759916109</v>
+      <c r="D29" t="s">
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>4203</v>
+        <v>20694</v>
       </c>
       <c r="F29">
-        <v>14541</v>
+        <v>1290978</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
@@ -1628,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>14541</v>
+        <v>1290978</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1636,7 +1693,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1648,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>1618</v>
+        <v>566</v>
       </c>
       <c r="F30">
         <v>510142</v>
@@ -1659,34 +1716,37 @@
       <c r="H30" t="s">
         <v>16</v>
       </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="I30" t="s">
+        <v>17</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>510142</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>16473</v>
+        <v>713</v>
       </c>
       <c r="F31">
-        <v>449951</v>
+        <v>311490</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
@@ -1694,37 +1754,37 @@
       <c r="H31" t="s">
         <v>16</v>
       </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>17</v>
       </c>
       <c r="J31">
-        <v>449951</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>17</v>
+        <v>311490</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>20</v>
+      <c r="D32">
+        <v>869367102</v>
       </c>
       <c r="E32">
-        <v>2025</v>
+        <v>27149</v>
       </c>
       <c r="F32">
-        <v>311490</v>
+        <v>1824542</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
@@ -1732,37 +1792,37 @@
       <c r="H32" t="s">
         <v>16</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>17</v>
       </c>
       <c r="J32">
-        <v>311490</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>17</v>
+        <v>1824542</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>869367102</v>
+        <v>88786108</v>
       </c>
       <c r="E33">
-        <v>33918</v>
+        <v>55888</v>
       </c>
       <c r="F33">
-        <v>1824542</v>
+        <v>918154</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -1770,34 +1830,37 @@
       <c r="H33" t="s">
         <v>16</v>
       </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="I33" t="s">
+        <v>17</v>
       </c>
       <c r="J33">
-        <v>1824542</v>
+        <v>0</v>
       </c>
       <c r="K33">
+        <v>918154</v>
+      </c>
+      <c r="L33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>58147</v>
+        <v>22909</v>
       </c>
       <c r="F34">
-        <v>1915274</v>
+        <v>1581031</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
@@ -1805,37 +1868,37 @@
       <c r="H34" t="s">
         <v>16</v>
       </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="I34" t="s">
+        <v>17</v>
       </c>
       <c r="J34">
-        <v>1915274</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>17</v>
+        <v>1581031</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35">
-        <v>604871103</v>
+      <c r="D35" t="s">
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>37574</v>
+        <v>47480</v>
       </c>
       <c r="F35">
-        <v>1694017</v>
+        <v>1941118</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
@@ -1843,17 +1906,17 @@
       <c r="H35" t="s">
         <v>16</v>
       </c>
-      <c r="I35">
-        <v>0</v>
+      <c r="I35" t="s">
+        <v>17</v>
       </c>
       <c r="J35">
-        <v>1694017</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>17</v>
+        <v>1941118</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1861,19 +1924,19 @@
         <v>2021</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>79809</v>
+        <v>944</v>
       </c>
       <c r="F36">
-        <v>2911677</v>
+        <v>510142</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -1881,17 +1944,17 @@
       <c r="H36" t="s">
         <v>16</v>
       </c>
-      <c r="I36">
-        <v>0</v>
+      <c r="I36" t="s">
+        <v>17</v>
       </c>
       <c r="J36">
-        <v>2911677</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>17</v>
+        <v>510142</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1899,19 +1962,19 @@
         <v>2021</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>1658</v>
+        <v>15289</v>
       </c>
       <c r="F37">
-        <v>510142</v>
+        <v>449951</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
@@ -1919,13 +1982,16 @@
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="I37">
-        <v>0</v>
+      <c r="I37" t="s">
+        <v>17</v>
       </c>
       <c r="J37">
-        <v>510142</v>
+        <v>0</v>
       </c>
       <c r="K37">
+        <v>449951</v>
+      </c>
+      <c r="L37">
         <v>0</v>
       </c>
     </row>
@@ -1934,19 +2000,19 @@
         <v>2021</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>20176</v>
+        <v>1648</v>
       </c>
       <c r="F38">
-        <v>449951</v>
+        <v>311490</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
@@ -1954,17 +2020,17 @@
       <c r="H38" t="s">
         <v>16</v>
       </c>
-      <c r="I38">
-        <v>0</v>
+      <c r="I38" t="s">
+        <v>17</v>
       </c>
       <c r="J38">
-        <v>449951</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>17</v>
+        <v>311490</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1972,19 +2038,19 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
-        <v>20</v>
+      <c r="D39">
+        <v>869367102</v>
       </c>
       <c r="E39">
-        <v>2682</v>
+        <v>34466</v>
       </c>
       <c r="F39">
-        <v>311490</v>
+        <v>1824542</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
@@ -1992,17 +2058,17 @@
       <c r="H39" t="s">
         <v>16</v>
       </c>
-      <c r="I39">
-        <v>0</v>
+      <c r="I39" t="s">
+        <v>17</v>
       </c>
       <c r="J39">
-        <v>311490</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>17</v>
+        <v>1824542</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2010,19 +2076,19 @@
         <v>2021</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>88786108</v>
       </c>
       <c r="E40">
-        <v>3491</v>
+        <v>59742</v>
       </c>
       <c r="F40">
-        <v>275034</v>
+        <v>1436456</v>
       </c>
       <c r="G40" t="s">
         <v>15</v>
@@ -2030,17 +2096,17 @@
       <c r="H40" t="s">
         <v>16</v>
       </c>
-      <c r="I40">
-        <v>0</v>
+      <c r="I40" t="s">
+        <v>17</v>
       </c>
       <c r="J40">
-        <v>275034</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>17</v>
+        <v>1436456</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2048,19 +2114,19 @@
         <v>2021</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41">
-        <v>869367102</v>
+        <v>604871103</v>
       </c>
       <c r="E41">
-        <v>41527</v>
+        <v>42859</v>
       </c>
       <c r="F41">
-        <v>1824542</v>
+        <v>1694017</v>
       </c>
       <c r="G41" t="s">
         <v>15</v>
@@ -2068,13 +2134,16 @@
       <c r="H41" t="s">
         <v>16</v>
       </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="I41" t="s">
+        <v>17</v>
       </c>
       <c r="J41">
-        <v>1824542</v>
+        <v>0</v>
       </c>
       <c r="K41">
+        <v>1694017</v>
+      </c>
+      <c r="L41">
         <v>0</v>
       </c>
     </row>
@@ -2083,19 +2152,19 @@
         <v>2021</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>57209</v>
+        <v>45209</v>
       </c>
       <c r="F42">
-        <v>1915274</v>
+        <v>1941118</v>
       </c>
       <c r="G42" t="s">
         <v>15</v>
@@ -2103,17 +2172,17 @@
       <c r="H42" t="s">
         <v>16</v>
       </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="I42" t="s">
+        <v>17</v>
       </c>
       <c r="J42">
-        <v>1915274</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>17</v>
+        <v>1941118</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2121,19 +2190,19 @@
         <v>2021</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43">
-        <v>604871103</v>
+        <v>759916109</v>
       </c>
       <c r="E43">
-        <v>33186</v>
+        <v>4203</v>
       </c>
       <c r="F43">
-        <v>1694017</v>
+        <v>14541</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
@@ -2141,17 +2210,17 @@
       <c r="H43" t="s">
         <v>16</v>
       </c>
-      <c r="I43">
-        <v>0</v>
+      <c r="I43" t="s">
+        <v>17</v>
       </c>
       <c r="J43">
-        <v>1694017</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>17</v>
+        <v>14541</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2159,19 +2228,19 @@
         <v>2021</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>107033</v>
+        <v>1618</v>
       </c>
       <c r="F44">
-        <v>2911677</v>
+        <v>510142</v>
       </c>
       <c r="G44" t="s">
         <v>15</v>
@@ -2183,13 +2252,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2911677</v>
+        <v>510142</v>
       </c>
       <c r="K44">
         <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2197,19 +2263,19 @@
         <v>2021</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E45">
-        <v>319</v>
+        <v>16473</v>
       </c>
       <c r="F45">
-        <v>510142</v>
+        <v>449951</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
@@ -2221,10 +2287,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>510142</v>
+        <v>449951</v>
       </c>
       <c r="K45">
         <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2232,19 +2301,19 @@
         <v>2021</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
-      <c r="D46">
-        <v>483497103</v>
+      <c r="D46" t="s">
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>25679</v>
+        <v>2025</v>
       </c>
       <c r="F46">
-        <v>1719576</v>
+        <v>311490</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
@@ -2256,10 +2325,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1719576</v>
+        <v>311490</v>
       </c>
       <c r="K46">
         <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2267,19 +2339,19 @@
         <v>2021</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="D47" t="s">
-        <v>29</v>
+      <c r="D47">
+        <v>869367102</v>
       </c>
       <c r="E47">
-        <v>25679</v>
+        <v>33918</v>
       </c>
       <c r="F47">
-        <v>449951</v>
+        <v>1824542</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
@@ -2291,13 +2363,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>449951</v>
+        <v>1824542</v>
       </c>
       <c r="K47">
         <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2305,19 +2374,19 @@
         <v>2021</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>88786108</v>
       </c>
       <c r="E48">
-        <v>2003</v>
+        <v>58147</v>
       </c>
       <c r="F48">
-        <v>311490</v>
+        <v>1915274</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -2329,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>311490</v>
+        <v>1915274</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2343,19 +2412,19 @@
         <v>2021</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" t="s">
-        <v>34</v>
+      <c r="D49">
+        <v>604871103</v>
       </c>
       <c r="E49">
-        <v>16612</v>
+        <v>37574</v>
       </c>
       <c r="F49">
-        <v>1191676</v>
+        <v>1694017</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -2367,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1191676</v>
+        <v>1694017</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2381,19 +2450,19 @@
         <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
-      <c r="D50">
-        <v>869367102</v>
+      <c r="D50" t="s">
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>39611</v>
+        <v>79809</v>
       </c>
       <c r="F50">
-        <v>1824542</v>
+        <v>2911677</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -2405,10 +2474,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1824542</v>
+        <v>2911677</v>
       </c>
       <c r="K50">
         <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2416,19 +2488,19 @@
         <v>2021</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51">
-        <v>88786108</v>
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>34379</v>
+        <v>1658</v>
       </c>
       <c r="F51">
-        <v>1915274</v>
+        <v>510142</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
@@ -2440,13 +2512,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1915274</v>
+        <v>510142</v>
       </c>
       <c r="K51">
         <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2454,19 +2523,19 @@
         <v>2021</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
       </c>
-      <c r="D52">
-        <v>604871103</v>
+      <c r="D52" t="s">
+        <v>29</v>
       </c>
       <c r="E52">
-        <v>21175</v>
+        <v>20176</v>
       </c>
       <c r="F52">
-        <v>1694017</v>
+        <v>449951</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
@@ -2478,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1694017</v>
+        <v>449951</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2492,19 +2561,19 @@
         <v>2021</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>42115</v>
+        <v>2682</v>
       </c>
       <c r="F53">
-        <v>1662646</v>
+        <v>311490</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
@@ -2516,30 +2585,33 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1662646</v>
+        <v>311490</v>
       </c>
       <c r="K53">
         <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>177</v>
+        <v>3491</v>
       </c>
       <c r="F54">
-        <v>510142</v>
+        <v>275034</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
@@ -2551,30 +2623,33 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>510142</v>
+        <v>275034</v>
       </c>
       <c r="K54">
         <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>869367102</v>
       </c>
       <c r="E55">
-        <v>1769</v>
+        <v>41527</v>
       </c>
       <c r="F55">
-        <v>285765</v>
+        <v>1824542</v>
       </c>
       <c r="G55" t="s">
         <v>15</v>
@@ -2586,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>285765</v>
+        <v>1824542</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2594,22 +2669,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>483497103</v>
+        <v>88786108</v>
       </c>
       <c r="E56">
-        <v>21650</v>
+        <v>57209</v>
       </c>
       <c r="F56">
-        <v>1719576</v>
+        <v>1915274</v>
       </c>
       <c r="G56" t="s">
         <v>15</v>
@@ -2621,30 +2696,33 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1719576</v>
+        <v>1915274</v>
       </c>
       <c r="K56">
         <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" t="s">
-        <v>29</v>
+      <c r="D57">
+        <v>604871103</v>
       </c>
       <c r="E57">
-        <v>23083</v>
+        <v>33186</v>
       </c>
       <c r="F57">
-        <v>449951</v>
+        <v>1694017</v>
       </c>
       <c r="G57" t="s">
         <v>15</v>
@@ -2656,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>449951</v>
+        <v>1694017</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2667,22 +2745,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>2109</v>
+        <v>107033</v>
       </c>
       <c r="F58">
-        <v>311490</v>
+        <v>2911677</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
@@ -2694,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>311490</v>
+        <v>2911677</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2705,22 +2783,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>16095</v>
+        <v>319</v>
       </c>
       <c r="F59">
-        <v>1236123</v>
+        <v>510142</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
@@ -2732,33 +2810,30 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1236123</v>
+        <v>510142</v>
       </c>
       <c r="K59">
         <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
       </c>
       <c r="D60">
-        <v>869367102</v>
+        <v>483497103</v>
       </c>
       <c r="E60">
-        <v>18337</v>
+        <v>25679</v>
       </c>
       <c r="F60">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
@@ -2770,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2778,22 +2853,22 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>36486</v>
+        <v>25679</v>
       </c>
       <c r="F61">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
@@ -2805,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2816,22 +2891,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
       </c>
-      <c r="D62">
-        <v>604871103</v>
+      <c r="D62" t="s">
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>19894</v>
+        <v>2003</v>
       </c>
       <c r="F62">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>
@@ -2843,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -2854,22 +2929,22 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>57779</v>
+        <v>16612</v>
       </c>
       <c r="F63">
-        <v>1949330</v>
+        <v>1191676</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
@@ -2881,30 +2956,33 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1949330</v>
+        <v>1191676</v>
       </c>
       <c r="K63">
         <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>869367102</v>
       </c>
       <c r="E64">
-        <v>276</v>
+        <v>39611</v>
       </c>
       <c r="F64">
-        <v>510142</v>
+        <v>1824542</v>
       </c>
       <c r="G64" t="s">
         <v>15</v>
@@ -2916,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>510142</v>
+        <v>1824542</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -2924,22 +3002,22 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>88786108</v>
       </c>
       <c r="E65">
-        <v>2600</v>
+        <v>34379</v>
       </c>
       <c r="F65">
-        <v>312068</v>
+        <v>1915274</v>
       </c>
       <c r="G65" t="s">
         <v>15</v>
@@ -2951,30 +3029,33 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>312068</v>
+        <v>1915274</v>
       </c>
       <c r="K65">
         <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>604871103</v>
       </c>
       <c r="E66">
-        <v>1837</v>
+        <v>21175</v>
       </c>
       <c r="F66">
-        <v>285765</v>
+        <v>1694017</v>
       </c>
       <c r="G66" t="s">
         <v>15</v>
@@ -2986,30 +3067,33 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>285765</v>
+        <v>1694017</v>
       </c>
       <c r="K66">
         <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67">
-        <v>483497103</v>
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
       </c>
       <c r="E67">
-        <v>20806</v>
+        <v>42115</v>
       </c>
       <c r="F67">
-        <v>1719576</v>
+        <v>1662646</v>
       </c>
       <c r="G67" t="s">
         <v>15</v>
@@ -3021,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1719576</v>
+        <v>1662646</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3032,19 +3116,19 @@
         <v>2020</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E68">
-        <v>26871</v>
+        <v>177</v>
       </c>
       <c r="F68">
-        <v>449951</v>
+        <v>510142</v>
       </c>
       <c r="G68" t="s">
         <v>15</v>
@@ -3056,13 +3140,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>449951</v>
+        <v>510142</v>
       </c>
       <c r="K68">
         <v>0</v>
-      </c>
-      <c r="L68" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3070,19 +3151,19 @@
         <v>2020</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E69">
-        <v>2904</v>
+        <v>1769</v>
       </c>
       <c r="F69">
-        <v>311490</v>
+        <v>285765</v>
       </c>
       <c r="G69" t="s">
         <v>15</v>
@@ -3094,13 +3175,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>311490</v>
+        <v>285765</v>
       </c>
       <c r="K69">
         <v>0</v>
-      </c>
-      <c r="L69" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3108,19 +3186,19 @@
         <v>2020</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" t="s">
-        <v>34</v>
+      <c r="D70">
+        <v>483497103</v>
       </c>
       <c r="E70">
-        <v>21570</v>
+        <v>21650</v>
       </c>
       <c r="F70">
-        <v>1236123</v>
+        <v>1719576</v>
       </c>
       <c r="G70" t="s">
         <v>15</v>
@@ -3132,13 +3210,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1236123</v>
+        <v>1719576</v>
       </c>
       <c r="K70">
         <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3146,19 +3221,19 @@
         <v>2020</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
-      <c r="D71">
-        <v>869367102</v>
+      <c r="D71" t="s">
+        <v>29</v>
       </c>
       <c r="E71">
-        <v>14158</v>
+        <v>23083</v>
       </c>
       <c r="F71">
-        <v>1824542</v>
+        <v>449951</v>
       </c>
       <c r="G71" t="s">
         <v>15</v>
@@ -3170,10 +3245,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1824542</v>
+        <v>449951</v>
       </c>
       <c r="K71">
         <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3181,19 +3259,19 @@
         <v>2020</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>30147</v>
+        <v>2109</v>
       </c>
       <c r="F72">
-        <v>1915274</v>
+        <v>311490</v>
       </c>
       <c r="G72" t="s">
         <v>15</v>
@@ -3205,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1915274</v>
+        <v>311490</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3219,19 +3297,19 @@
         <v>2020</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
-      <c r="D73">
-        <v>604871103</v>
+      <c r="D73" t="s">
+        <v>34</v>
       </c>
       <c r="E73">
-        <v>23014</v>
+        <v>16095</v>
       </c>
       <c r="F73">
-        <v>1695969</v>
+        <v>1236123</v>
       </c>
       <c r="G73" t="s">
         <v>15</v>
@@ -3243,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1695969</v>
+        <v>1236123</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3257,19 +3335,19 @@
         <v>2020</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>869367102</v>
       </c>
       <c r="E74">
-        <v>179</v>
+        <v>18337</v>
       </c>
       <c r="F74">
-        <v>510142</v>
+        <v>1824542</v>
       </c>
       <c r="G74" t="s">
         <v>15</v>
@@ -3281,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>510142</v>
+        <v>1824542</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3292,19 +3370,19 @@
         <v>2020</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>88786108</v>
       </c>
       <c r="E75">
-        <v>3110</v>
+        <v>36486</v>
       </c>
       <c r="F75">
-        <v>628236</v>
+        <v>1915274</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
@@ -3316,10 +3394,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>628236</v>
+        <v>1915274</v>
       </c>
       <c r="K75">
         <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3327,19 +3408,19 @@
         <v>2020</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>604871103</v>
       </c>
       <c r="E76">
-        <v>1186</v>
+        <v>19894</v>
       </c>
       <c r="F76">
-        <v>285765</v>
+        <v>1695969</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
@@ -3351,10 +3432,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>285765</v>
+        <v>1695969</v>
       </c>
       <c r="K76">
         <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3362,19 +3446,19 @@
         <v>2020</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77">
-        <v>483497103</v>
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
       </c>
       <c r="E77">
-        <v>13155</v>
+        <v>57779</v>
       </c>
       <c r="F77">
-        <v>1719576</v>
+        <v>1949330</v>
       </c>
       <c r="G77" t="s">
         <v>15</v>
@@ -3386,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1719576</v>
+        <v>1949330</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3397,19 +3481,19 @@
         <v>2020</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E78">
-        <v>18525</v>
+        <v>276</v>
       </c>
       <c r="F78">
-        <v>449951</v>
+        <v>510142</v>
       </c>
       <c r="G78" t="s">
         <v>15</v>
@@ -3421,13 +3505,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>449951</v>
+        <v>510142</v>
       </c>
       <c r="K78">
         <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3435,19 +3516,19 @@
         <v>2020</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E79">
-        <v>3115</v>
+        <v>2600</v>
       </c>
       <c r="F79">
-        <v>311490</v>
+        <v>312068</v>
       </c>
       <c r="G79" t="s">
         <v>15</v>
@@ -3459,13 +3540,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>311490</v>
+        <v>312068</v>
       </c>
       <c r="K79">
         <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3473,19 +3551,19 @@
         <v>2020</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E80">
-        <v>19234</v>
+        <v>1837</v>
       </c>
       <c r="F80">
-        <v>1236123</v>
+        <v>285765</v>
       </c>
       <c r="G80" t="s">
         <v>15</v>
@@ -3497,13 +3575,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1236123</v>
+        <v>285765</v>
       </c>
       <c r="K80">
         <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3511,19 +3586,19 @@
         <v>2020</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
       </c>
       <c r="D81">
-        <v>869367102</v>
+        <v>483497103</v>
       </c>
       <c r="E81">
-        <v>18610</v>
+        <v>20806</v>
       </c>
       <c r="F81">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="G81" t="s">
         <v>15</v>
@@ -3535,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3546,19 +3621,19 @@
         <v>2020</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
       </c>
       <c r="E82">
-        <v>26143</v>
+        <v>26871</v>
       </c>
       <c r="F82">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="G82" t="s">
         <v>15</v>
@@ -3570,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3584,19 +3659,19 @@
         <v>2020</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83">
-        <v>604871103</v>
+      <c r="D83" t="s">
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>15976</v>
+        <v>2904</v>
       </c>
       <c r="F83">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="G83" t="s">
         <v>15</v>
@@ -3608,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3622,19 +3697,19 @@
         <v>2020</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E84">
-        <v>750</v>
+        <v>21570</v>
       </c>
       <c r="F84">
-        <v>510142</v>
+        <v>1236123</v>
       </c>
       <c r="G84" t="s">
         <v>15</v>
@@ -3646,10 +3721,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>510142</v>
+        <v>1236123</v>
       </c>
       <c r="K84">
         <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3657,19 +3735,19 @@
         <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
       </c>
-      <c r="D85" t="s">
-        <v>43</v>
+      <c r="D85">
+        <v>869367102</v>
       </c>
       <c r="E85">
-        <v>2482</v>
+        <v>14158</v>
       </c>
       <c r="F85">
-        <v>628236</v>
+        <v>1824542</v>
       </c>
       <c r="G85" t="s">
         <v>15</v>
@@ -3681,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>628236</v>
+        <v>1824542</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3692,19 +3770,19 @@
         <v>2020</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>88786108</v>
       </c>
       <c r="E86">
-        <v>1689</v>
+        <v>30147</v>
       </c>
       <c r="F86">
-        <v>285765</v>
+        <v>1915274</v>
       </c>
       <c r="G86" t="s">
         <v>15</v>
@@ -3716,10 +3794,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>285765</v>
+        <v>1915274</v>
       </c>
       <c r="K86">
         <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3727,19 +3808,19 @@
         <v>2020</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
       </c>
       <c r="D87">
-        <v>483497103</v>
+        <v>604871103</v>
       </c>
       <c r="E87">
-        <v>30625</v>
+        <v>23014</v>
       </c>
       <c r="F87">
-        <v>1719576</v>
+        <v>1695969</v>
       </c>
       <c r="G87" t="s">
         <v>15</v>
@@ -3751,10 +3832,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1719576</v>
+        <v>1695969</v>
       </c>
       <c r="K87">
         <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3762,19 +3846,19 @@
         <v>2020</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E88">
-        <v>28005</v>
+        <v>179</v>
       </c>
       <c r="F88">
-        <v>449951</v>
+        <v>510142</v>
       </c>
       <c r="G88" t="s">
         <v>15</v>
@@ -3786,13 +3870,10 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>449951</v>
+        <v>510142</v>
       </c>
       <c r="K88">
         <v>0</v>
-      </c>
-      <c r="L88" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3800,19 +3881,19 @@
         <v>2020</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E89">
-        <v>3333</v>
+        <v>3110</v>
       </c>
       <c r="F89">
-        <v>311490</v>
+        <v>628236</v>
       </c>
       <c r="G89" t="s">
         <v>15</v>
@@ -3824,13 +3905,10 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>311490</v>
+        <v>628236</v>
       </c>
       <c r="K89">
         <v>0</v>
-      </c>
-      <c r="L89" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3838,19 +3916,19 @@
         <v>2020</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E90">
-        <v>28528</v>
+        <v>1186</v>
       </c>
       <c r="F90">
-        <v>1417204</v>
+        <v>285765</v>
       </c>
       <c r="G90" t="s">
         <v>15</v>
@@ -3862,13 +3940,10 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1417204</v>
+        <v>285765</v>
       </c>
       <c r="K90">
         <v>0</v>
-      </c>
-      <c r="L90" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3876,19 +3951,19 @@
         <v>2020</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
       </c>
       <c r="D91">
-        <v>869367102</v>
+        <v>483497103</v>
       </c>
       <c r="E91">
-        <v>20070</v>
+        <v>13155</v>
       </c>
       <c r="F91">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="G91" t="s">
         <v>15</v>
@@ -3900,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -3911,19 +3986,19 @@
         <v>2020</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
       </c>
       <c r="E92">
-        <v>18061</v>
+        <v>18525</v>
       </c>
       <c r="F92">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="G92" t="s">
         <v>15</v>
@@ -3935,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -3949,19 +4024,19 @@
         <v>2020</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
       </c>
-      <c r="D93">
-        <v>604871103</v>
+      <c r="D93" t="s">
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>31562</v>
+        <v>3115</v>
       </c>
       <c r="F93">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
@@ -3973,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -3984,22 +4059,22 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E94">
-        <v>4112</v>
+        <v>19234</v>
       </c>
       <c r="F94">
-        <v>6631832</v>
+        <v>1236123</v>
       </c>
       <c r="G94" t="s">
         <v>15</v>
@@ -4007,37 +4082,37 @@
       <c r="H94" t="s">
         <v>16</v>
       </c>
-      <c r="I94" t="s">
-        <v>17</v>
+      <c r="I94">
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1236123</v>
       </c>
       <c r="K94">
-        <v>6631832</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
       </c>
-      <c r="D95" t="s">
-        <v>43</v>
+      <c r="D95">
+        <v>869367102</v>
       </c>
       <c r="E95">
-        <v>1910</v>
+        <v>18610</v>
       </c>
       <c r="F95">
-        <v>628236</v>
+        <v>1824542</v>
       </c>
       <c r="G95" t="s">
         <v>15</v>
@@ -4045,37 +4120,34 @@
       <c r="H95" t="s">
         <v>16</v>
       </c>
-      <c r="I95" t="s">
-        <v>17</v>
+      <c r="I95">
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1824542</v>
       </c>
       <c r="K95">
-        <v>628236</v>
-      </c>
-      <c r="L95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>88786108</v>
       </c>
       <c r="E96">
-        <v>1543</v>
+        <v>26143</v>
       </c>
       <c r="F96">
-        <v>285765</v>
+        <v>1915274</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
@@ -4083,34 +4155,37 @@
       <c r="H96" t="s">
         <v>16</v>
       </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
       <c r="J96">
-        <v>0</v>
+        <v>1915274</v>
       </c>
       <c r="K96">
-        <v>285765</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
       </c>
       <c r="D97">
-        <v>483497103</v>
+        <v>604871103</v>
       </c>
       <c r="E97">
-        <v>19947</v>
+        <v>15976</v>
       </c>
       <c r="F97">
-        <v>1719576</v>
+        <v>1695969</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -4118,37 +4193,37 @@
       <c r="H97" t="s">
         <v>16</v>
       </c>
-      <c r="I97" t="s">
-        <v>17</v>
+      <c r="I97">
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1695969</v>
       </c>
       <c r="K97">
-        <v>1719576</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E98">
-        <v>18401</v>
+        <v>750</v>
       </c>
       <c r="F98">
-        <v>542143</v>
+        <v>510142</v>
       </c>
       <c r="G98" t="s">
         <v>15</v>
@@ -4156,37 +4231,34 @@
       <c r="H98" t="s">
         <v>16</v>
       </c>
-      <c r="I98" t="s">
-        <v>44</v>
+      <c r="I98">
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>510142</v>
       </c>
       <c r="K98">
-        <v>542143</v>
-      </c>
-      <c r="L98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E99">
-        <v>3957</v>
+        <v>2482</v>
       </c>
       <c r="F99">
-        <v>311490</v>
+        <v>628236</v>
       </c>
       <c r="G99" t="s">
         <v>15</v>
@@ -4194,37 +4266,34 @@
       <c r="H99" t="s">
         <v>16</v>
       </c>
-      <c r="I99" t="s">
-        <v>44</v>
+      <c r="I99">
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>628236</v>
       </c>
       <c r="K99">
-        <v>311490</v>
-      </c>
-      <c r="L99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E100">
-        <v>20010</v>
+        <v>1689</v>
       </c>
       <c r="F100">
-        <v>1417204</v>
+        <v>285765</v>
       </c>
       <c r="G100" t="s">
         <v>15</v>
@@ -4232,37 +4301,34 @@
       <c r="H100" t="s">
         <v>16</v>
       </c>
-      <c r="I100" t="s">
-        <v>44</v>
+      <c r="I100">
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>285765</v>
       </c>
       <c r="K100">
-        <v>1417204</v>
-      </c>
-      <c r="L100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101">
-        <v>869367102</v>
+        <v>483497103</v>
       </c>
       <c r="E101">
-        <v>16584</v>
+        <v>30625</v>
       </c>
       <c r="F101">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="G101" t="s">
         <v>15</v>
@@ -4270,34 +4336,34 @@
       <c r="H101" t="s">
         <v>16</v>
       </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
       <c r="J101">
-        <v>0</v>
+        <v>1719576</v>
       </c>
       <c r="K101">
-        <v>1824542</v>
-      </c>
-      <c r="L101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>21815</v>
+        <v>28005</v>
       </c>
       <c r="F102">
-        <v>1915274</v>
+        <v>449951</v>
       </c>
       <c r="G102" t="s">
         <v>15</v>
@@ -4305,37 +4371,37 @@
       <c r="H102" t="s">
         <v>16</v>
       </c>
-      <c r="I102" t="s">
-        <v>44</v>
+      <c r="I102">
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>449951</v>
       </c>
       <c r="K102">
-        <v>1915274</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
       </c>
-      <c r="D103">
-        <v>604871103</v>
+      <c r="D103" t="s">
+        <v>20</v>
       </c>
       <c r="E103">
-        <v>34089</v>
+        <v>3333</v>
       </c>
       <c r="F103">
-        <v>1695969</v>
+        <v>311490</v>
       </c>
       <c r="G103" t="s">
         <v>15</v>
@@ -4343,37 +4409,37 @@
       <c r="H103" t="s">
         <v>16</v>
       </c>
-      <c r="I103" t="s">
-        <v>44</v>
+      <c r="I103">
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>311490</v>
       </c>
       <c r="K103">
-        <v>1695969</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E104">
-        <v>9019</v>
+        <v>28528</v>
       </c>
       <c r="F104">
-        <v>6631832</v>
+        <v>1417204</v>
       </c>
       <c r="G104" t="s">
         <v>15</v>
@@ -4381,37 +4447,37 @@
       <c r="H104" t="s">
         <v>16</v>
       </c>
-      <c r="I104" t="s">
-        <v>17</v>
+      <c r="I104">
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1417204</v>
       </c>
       <c r="K104">
-        <v>6631832</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
-      <c r="D105" t="s">
-        <v>43</v>
+      <c r="D105">
+        <v>869367102</v>
       </c>
       <c r="E105">
-        <v>2764</v>
+        <v>20070</v>
       </c>
       <c r="F105">
-        <v>628236</v>
+        <v>1824542</v>
       </c>
       <c r="G105" t="s">
         <v>15</v>
@@ -4419,37 +4485,34 @@
       <c r="H105" t="s">
         <v>16</v>
       </c>
-      <c r="I105" t="s">
-        <v>17</v>
+      <c r="I105">
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1824542</v>
       </c>
       <c r="K105">
-        <v>628236</v>
-      </c>
-      <c r="L105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="D106">
+        <v>88786108</v>
       </c>
       <c r="E106">
-        <v>2306</v>
+        <v>18061</v>
       </c>
       <c r="F106">
-        <v>285765</v>
+        <v>1915274</v>
       </c>
       <c r="G106" t="s">
         <v>15</v>
@@ -4457,34 +4520,37 @@
       <c r="H106" t="s">
         <v>16</v>
       </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
       <c r="J106">
-        <v>0</v>
+        <v>1915274</v>
       </c>
       <c r="K106">
-        <v>285765</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
       </c>
       <c r="D107">
-        <v>483497103</v>
+        <v>604871103</v>
       </c>
       <c r="E107">
-        <v>38088</v>
+        <v>31562</v>
       </c>
       <c r="F107">
-        <v>1719576</v>
+        <v>1695969</v>
       </c>
       <c r="G107" t="s">
         <v>15</v>
@@ -4492,17 +4558,17 @@
       <c r="H107" t="s">
         <v>16</v>
       </c>
-      <c r="I107" t="s">
-        <v>17</v>
+      <c r="I107">
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1695969</v>
       </c>
       <c r="K107">
-        <v>1719576</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4510,19 +4576,19 @@
         <v>2019</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E108">
-        <v>20709</v>
+        <v>4112</v>
       </c>
       <c r="F108">
-        <v>918337</v>
+        <v>6631832</v>
       </c>
       <c r="G108" t="s">
         <v>15</v>
@@ -4531,13 +4597,13 @@
         <v>16</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>918337</v>
+        <v>6631832</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4548,19 +4614,19 @@
         <v>2019</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E109">
-        <v>4672</v>
+        <v>1910</v>
       </c>
       <c r="F109">
-        <v>311490</v>
+        <v>628236</v>
       </c>
       <c r="G109" t="s">
         <v>15</v>
@@ -4569,13 +4635,13 @@
         <v>16</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>311490</v>
+        <v>628236</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4586,19 +4652,19 @@
         <v>2019</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E110">
-        <v>31393</v>
+        <v>1543</v>
       </c>
       <c r="F110">
-        <v>1930704</v>
+        <v>285765</v>
       </c>
       <c r="G110" t="s">
         <v>15</v>
@@ -4606,14 +4672,11 @@
       <c r="H110" t="s">
         <v>16</v>
       </c>
-      <c r="I110" t="s">
-        <v>44</v>
-      </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1930704</v>
+        <v>285765</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -4624,19 +4687,19 @@
         <v>2019</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
       </c>
       <c r="D111">
-        <v>869367102</v>
+        <v>483497103</v>
       </c>
       <c r="E111">
-        <v>20763</v>
+        <v>19947</v>
       </c>
       <c r="F111">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="G111" t="s">
         <v>15</v>
@@ -4644,11 +4707,14 @@
       <c r="H111" t="s">
         <v>16</v>
       </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1824542</v>
+        <v>1719576</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4659,19 +4725,19 @@
         <v>2019</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>19268</v>
+        <v>18401</v>
       </c>
       <c r="F112">
-        <v>1915274</v>
+        <v>542143</v>
       </c>
       <c r="G112" t="s">
         <v>15</v>
@@ -4686,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>1915274</v>
+        <v>542143</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4697,19 +4763,19 @@
         <v>2019</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E113">
-        <v>15784</v>
+        <v>3957</v>
       </c>
       <c r="F113">
-        <v>6631832</v>
+        <v>311490</v>
       </c>
       <c r="G113" t="s">
         <v>15</v>
@@ -4718,13 +4784,13 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>6631832</v>
+        <v>311490</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -4735,19 +4801,19 @@
         <v>2019</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E114">
-        <v>2494</v>
+        <v>20010</v>
       </c>
       <c r="F114">
-        <v>628236</v>
+        <v>1417204</v>
       </c>
       <c r="G114" t="s">
         <v>15</v>
@@ -4756,13 +4822,13 @@
         <v>16</v>
       </c>
       <c r="I114" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>628236</v>
+        <v>1417204</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -4773,19 +4839,19 @@
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>869367102</v>
       </c>
       <c r="E115">
-        <v>2263</v>
+        <v>16584</v>
       </c>
       <c r="F115">
-        <v>285765</v>
+        <v>1824542</v>
       </c>
       <c r="G115" t="s">
         <v>15</v>
@@ -4797,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>285765</v>
+        <v>1824542</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -4808,19 +4874,19 @@
         <v>2019</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D116">
-        <v>483497103</v>
+        <v>88786108</v>
       </c>
       <c r="E116">
-        <v>52419</v>
+        <v>21815</v>
       </c>
       <c r="F116">
-        <v>1831548</v>
+        <v>1915274</v>
       </c>
       <c r="G116" t="s">
         <v>15</v>
@@ -4829,13 +4895,13 @@
         <v>16</v>
       </c>
       <c r="I116" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1831548</v>
+        <v>1915274</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -4846,19 +4912,19 @@
         <v>2019</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
       </c>
-      <c r="D117" t="s">
-        <v>29</v>
+      <c r="D117">
+        <v>604871103</v>
       </c>
       <c r="E117">
-        <v>28739</v>
+        <v>34089</v>
       </c>
       <c r="F117">
-        <v>1238198</v>
+        <v>1695969</v>
       </c>
       <c r="G117" t="s">
         <v>15</v>
@@ -4873,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1238198</v>
+        <v>1695969</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -4884,19 +4950,19 @@
         <v>2019</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E118">
-        <v>5423</v>
+        <v>9019</v>
       </c>
       <c r="F118">
-        <v>311490</v>
+        <v>6631832</v>
       </c>
       <c r="G118" t="s">
         <v>15</v>
@@ -4905,13 +4971,13 @@
         <v>16</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>311490</v>
+        <v>6631832</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -4922,19 +4988,19 @@
         <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E119">
-        <v>42572</v>
+        <v>2764</v>
       </c>
       <c r="F119">
-        <v>1930704</v>
+        <v>628236</v>
       </c>
       <c r="G119" t="s">
         <v>15</v>
@@ -4943,13 +5009,13 @@
         <v>16</v>
       </c>
       <c r="I119" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>1930704</v>
+        <v>628236</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -4960,19 +5026,19 @@
         <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120">
-        <v>869367102</v>
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>41</v>
       </c>
       <c r="E120">
-        <v>20781</v>
+        <v>2306</v>
       </c>
       <c r="F120">
-        <v>1824542</v>
+        <v>285765</v>
       </c>
       <c r="G120" t="s">
         <v>15</v>
@@ -4980,14 +5046,11 @@
       <c r="H120" t="s">
         <v>16</v>
       </c>
-      <c r="I120" t="s">
-        <v>17</v>
-      </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>1824542</v>
+        <v>285765</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -4995,22 +5058,22 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <v>483497103</v>
       </c>
       <c r="E121">
-        <v>229</v>
+        <v>38088</v>
       </c>
       <c r="F121">
-        <v>510142</v>
+        <v>1719576</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
@@ -5025,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>510142</v>
+        <v>1719576</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -5033,22 +5096,22 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>532</v>
+        <v>20709</v>
       </c>
       <c r="F122">
-        <v>311490</v>
+        <v>918337</v>
       </c>
       <c r="G122" t="s">
         <v>15</v>
@@ -5057,13 +5120,13 @@
         <v>16</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>311490</v>
+        <v>918337</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -5071,22 +5134,22 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123">
-        <v>88786108</v>
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
       </c>
       <c r="E123">
-        <v>21098</v>
+        <v>4672</v>
       </c>
       <c r="F123">
-        <v>907032</v>
+        <v>311490</v>
       </c>
       <c r="G123" t="s">
         <v>15</v>
@@ -5095,13 +5158,13 @@
         <v>16</v>
       </c>
       <c r="I123" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>907032</v>
+        <v>311490</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -5109,22 +5172,22 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E124">
-        <v>10420</v>
+        <v>31393</v>
       </c>
       <c r="F124">
-        <v>1488596</v>
+        <v>1930704</v>
       </c>
       <c r="G124" t="s">
         <v>15</v>
@@ -5133,15 +5196,4809 @@
         <v>16</v>
       </c>
       <c r="I124" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1488596</v>
+        <v>1930704</v>
       </c>
       <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2019</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>869367102</v>
+      </c>
+      <c r="E125">
+        <v>20763</v>
+      </c>
+      <c r="F125">
+        <v>1824542</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1824542</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2019</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>88786108</v>
+      </c>
+      <c r="E126">
+        <v>19268</v>
+      </c>
+      <c r="F126">
+        <v>1915274</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>44</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1915274</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2019</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127">
+        <v>15784</v>
+      </c>
+      <c r="F127">
+        <v>6631832</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>6631832</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2019</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128">
+        <v>2494</v>
+      </c>
+      <c r="F128">
+        <v>628236</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>628236</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2019</v>
+      </c>
+      <c r="B129" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129">
+        <v>2263</v>
+      </c>
+      <c r="F129">
+        <v>285765</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>285765</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2019</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130">
+        <v>483497103</v>
+      </c>
+      <c r="E130">
+        <v>52419</v>
+      </c>
+      <c r="F130">
+        <v>1831548</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1831548</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2019</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <v>28739</v>
+      </c>
+      <c r="F131">
+        <v>1238198</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>44</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1238198</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2019</v>
+      </c>
+      <c r="B132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>5423</v>
+      </c>
+      <c r="F132">
+        <v>311490</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>44</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>311490</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2019</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133">
+        <v>42572</v>
+      </c>
+      <c r="F133">
+        <v>1930704</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" t="s">
+        <v>44</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1930704</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2019</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>869367102</v>
+      </c>
+      <c r="E134">
+        <v>20781</v>
+      </c>
+      <c r="F134">
+        <v>1824542</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1824542</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2019</v>
+      </c>
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135">
+        <v>14988</v>
+      </c>
+      <c r="F135">
+        <v>6631832</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>6631832</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2019</v>
+      </c>
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136">
+        <v>2500</v>
+      </c>
+      <c r="F136">
+        <v>628236</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>628236</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2019</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137">
+        <v>1249</v>
+      </c>
+      <c r="F137">
+        <v>285765</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>285765</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2019</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138">
+        <v>483497103</v>
+      </c>
+      <c r="E138">
+        <v>50327</v>
+      </c>
+      <c r="F138">
+        <v>2548202</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>2548202</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2019</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139">
+        <v>27019</v>
+      </c>
+      <c r="F139">
+        <v>1287227</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1287227</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2019</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>1072</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1072</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141">
+        <v>42873109</v>
+      </c>
+      <c r="E141">
+        <v>4336</v>
+      </c>
+      <c r="F141">
+        <v>1868961</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>44</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1868961</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2019</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142">
+        <v>45555</v>
+      </c>
+      <c r="F142">
+        <v>2736027</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2736027</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2019</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143">
+        <v>869367102</v>
+      </c>
+      <c r="E143">
+        <v>16457</v>
+      </c>
+      <c r="F143">
+        <v>1824542</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1824542</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2018</v>
+      </c>
+      <c r="B144" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144">
+        <v>38465</v>
+      </c>
+      <c r="F144">
+        <v>6631832</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>6631832</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2018</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145">
+        <v>4974</v>
+      </c>
+      <c r="F145">
+        <v>722936</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>722936</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2018</v>
+      </c>
+      <c r="B146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146">
+        <v>2286</v>
+      </c>
+      <c r="F146">
+        <v>2857667</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>2857667</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2018</v>
+      </c>
+      <c r="B147" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147">
+        <v>483497103</v>
+      </c>
+      <c r="E147">
+        <v>57033</v>
+      </c>
+      <c r="F147">
+        <v>2579490</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>2579490</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2018</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148">
+        <v>66455</v>
+      </c>
+      <c r="F148">
+        <v>1716303</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1716303</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2018</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>150064</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>150064</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2018</v>
+      </c>
+      <c r="B150" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150">
+        <v>42873109</v>
+      </c>
+      <c r="E150">
+        <v>3028</v>
+      </c>
+      <c r="F150">
+        <v>1868961</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1868961</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2018</v>
+      </c>
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151">
+        <v>141918</v>
+      </c>
+      <c r="F151">
+        <v>2736027</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>2736027</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2018</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152">
+        <v>869367102</v>
+      </c>
+      <c r="E152">
+        <v>27368</v>
+      </c>
+      <c r="F152">
+        <v>1824542</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1824542</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2018</v>
+      </c>
+      <c r="B153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <v>32903</v>
+      </c>
+      <c r="F153">
+        <v>7546692</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>7546692</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2018</v>
+      </c>
+      <c r="B154" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154">
+        <v>8406</v>
+      </c>
+      <c r="F154">
+        <v>1245270</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1245270</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2018</v>
+      </c>
+      <c r="B155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>46</v>
+      </c>
+      <c r="E155">
+        <v>2740</v>
+      </c>
+      <c r="F155">
+        <v>2857667</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>2857667</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2018</v>
+      </c>
+      <c r="B156" t="s">
+        <v>37</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156">
+        <v>483497103</v>
+      </c>
+      <c r="E156">
+        <v>20945</v>
+      </c>
+      <c r="F156">
+        <v>2579490</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2579490</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2018</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157">
+        <v>67537</v>
+      </c>
+      <c r="F157">
+        <v>1716303</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1716303</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2018</v>
+      </c>
+      <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" t="s">
+        <v>48</v>
+      </c>
+      <c r="E158">
+        <v>346</v>
+      </c>
+      <c r="F158">
+        <v>150064</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>150064</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2018</v>
+      </c>
+      <c r="B159" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159">
+        <v>42873109</v>
+      </c>
+      <c r="E159">
+        <v>6785</v>
+      </c>
+      <c r="F159">
+        <v>1868961</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1868961</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2018</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160">
+        <v>78141</v>
+      </c>
+      <c r="F160">
+        <v>2736027</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>2736027</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2018</v>
+      </c>
+      <c r="B161" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161">
+        <v>12829</v>
+      </c>
+      <c r="F161">
+        <v>7546692</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>7546692</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2018</v>
+      </c>
+      <c r="B162" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
+        <v>43</v>
+      </c>
+      <c r="E162">
+        <v>10449</v>
+      </c>
+      <c r="F162">
+        <v>1605207</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1605207</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2018</v>
+      </c>
+      <c r="B163" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163">
+        <v>5171</v>
+      </c>
+      <c r="F163">
+        <v>2857667</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>2857667</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2018</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164">
+        <v>483497103</v>
+      </c>
+      <c r="E164">
+        <v>24453</v>
+      </c>
+      <c r="F164">
+        <v>2579490</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>2579490</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2018</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165">
+        <v>34395</v>
+      </c>
+      <c r="F165">
+        <v>1716303</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1716303</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2018</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166">
+        <v>761123108</v>
+      </c>
+      <c r="E166">
+        <v>3264</v>
+      </c>
+      <c r="F166">
+        <v>2250958</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2250958</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2018</v>
+      </c>
+      <c r="B167" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167">
+        <v>42873109</v>
+      </c>
+      <c r="E167">
+        <v>42781</v>
+      </c>
+      <c r="F167">
+        <v>1868961</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>16</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1868961</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2018</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168">
+        <v>14565</v>
+      </c>
+      <c r="F168">
+        <v>7546692</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>7546692</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2018</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E169">
+        <v>7143</v>
+      </c>
+      <c r="F169">
+        <v>1605207</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1605207</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2018</v>
+      </c>
+      <c r="B170" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" t="s">
+        <v>51</v>
+      </c>
+      <c r="E170">
+        <v>72109</v>
+      </c>
+      <c r="F170">
+        <v>2956456</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>2956456</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2018</v>
+      </c>
+      <c r="B171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" t="s">
+        <v>46</v>
+      </c>
+      <c r="E171">
+        <v>4257</v>
+      </c>
+      <c r="F171">
+        <v>2857667</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" t="s">
+        <v>16</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>2857667</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2018</v>
+      </c>
+      <c r="B172" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172">
+        <v>483497103</v>
+      </c>
+      <c r="E172">
+        <v>25150</v>
+      </c>
+      <c r="F172">
+        <v>2579490</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>2579490</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2018</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173">
+        <v>38909</v>
+      </c>
+      <c r="F173">
+        <v>1716303</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1716303</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2018</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174">
+        <v>3331</v>
+      </c>
+      <c r="F174">
+        <v>2250958</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>2250958</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2018</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175">
+        <v>42873109</v>
+      </c>
+      <c r="E175">
+        <v>23849</v>
+      </c>
+      <c r="F175">
+        <v>1868961</v>
+      </c>
+      <c r="G175" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1868961</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2017</v>
+      </c>
+      <c r="B176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176">
+        <v>10792</v>
+      </c>
+      <c r="F176">
+        <v>7546692</v>
+      </c>
+      <c r="G176" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>7546692</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2017</v>
+      </c>
+      <c r="B177" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177">
+        <v>9920</v>
+      </c>
+      <c r="F177">
+        <v>1605207</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1605207</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2017</v>
+      </c>
+      <c r="B178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" t="s">
+        <v>51</v>
+      </c>
+      <c r="E178">
+        <v>54577</v>
+      </c>
+      <c r="F178">
+        <v>2956456</v>
+      </c>
+      <c r="G178" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>2956456</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2017</v>
+      </c>
+      <c r="B179" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" t="s">
+        <v>46</v>
+      </c>
+      <c r="E179">
+        <v>6057</v>
+      </c>
+      <c r="F179">
+        <v>2857667</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>2857667</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2017</v>
+      </c>
+      <c r="B180" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" t="s">
+        <v>53</v>
+      </c>
+      <c r="E180">
+        <v>574</v>
+      </c>
+      <c r="F180">
+        <v>1275779</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1275779</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2017</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181">
+        <v>483497103</v>
+      </c>
+      <c r="E181">
+        <v>17360</v>
+      </c>
+      <c r="F181">
+        <v>2579490</v>
+      </c>
+      <c r="G181" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>2579490</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2017</v>
+      </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182">
+        <v>32593</v>
+      </c>
+      <c r="F182">
+        <v>1716303</v>
+      </c>
+      <c r="G182" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1716303</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2017</v>
+      </c>
+      <c r="B183" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>5358</v>
+      </c>
+      <c r="F183">
+        <v>7546692</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>7546692</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2017</v>
+      </c>
+      <c r="B184" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" t="s">
+        <v>43</v>
+      </c>
+      <c r="E184">
+        <v>14880</v>
+      </c>
+      <c r="F184">
+        <v>1605207</v>
+      </c>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1605207</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2017</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185">
+        <v>48960</v>
+      </c>
+      <c r="F185">
+        <v>2956456</v>
+      </c>
+      <c r="G185" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2956456</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>2017</v>
+      </c>
+      <c r="B186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186">
+        <v>4028</v>
+      </c>
+      <c r="F186">
+        <v>2857667</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" t="s">
+        <v>16</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>2857667</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2017</v>
+      </c>
+      <c r="B187" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187">
+        <v>701</v>
+      </c>
+      <c r="F187">
+        <v>1275779</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1275779</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2017</v>
+      </c>
+      <c r="B188" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188">
+        <v>483497103</v>
+      </c>
+      <c r="E188">
+        <v>18985</v>
+      </c>
+      <c r="F188">
+        <v>2579490</v>
+      </c>
+      <c r="G188" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2579490</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2017</v>
+      </c>
+      <c r="B189" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189">
+        <v>9131</v>
+      </c>
+      <c r="F189">
+        <v>7546692</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>7546692</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2017</v>
+      </c>
+      <c r="B190" t="s">
+        <v>42</v>
+      </c>
+      <c r="C190" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" t="s">
+        <v>43</v>
+      </c>
+      <c r="E190">
+        <v>14896</v>
+      </c>
+      <c r="F190">
+        <v>1605207</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" t="s">
+        <v>16</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1605207</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2017</v>
+      </c>
+      <c r="B191" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191">
+        <v>40801</v>
+      </c>
+      <c r="F191">
+        <v>2956456</v>
+      </c>
+      <c r="G191" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>2956456</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2017</v>
+      </c>
+      <c r="B192" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192">
+        <v>4572</v>
+      </c>
+      <c r="F192">
+        <v>2857667</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>2857667</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2017</v>
+      </c>
+      <c r="B193" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" t="s">
+        <v>53</v>
+      </c>
+      <c r="E193">
+        <v>995</v>
+      </c>
+      <c r="F193">
+        <v>1275779</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1275779</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2017</v>
+      </c>
+      <c r="B194" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194">
+        <v>483497103</v>
+      </c>
+      <c r="E194">
+        <v>20146</v>
+      </c>
+      <c r="F194">
+        <v>2579490</v>
+      </c>
+      <c r="G194" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>2579490</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2017</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>36</v>
+      </c>
+      <c r="E195">
+        <v>9811</v>
+      </c>
+      <c r="F195">
+        <v>7546692</v>
+      </c>
+      <c r="G195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>7546692</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2017</v>
+      </c>
+      <c r="B196" t="s">
+        <v>42</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" t="s">
+        <v>43</v>
+      </c>
+      <c r="E196">
+        <v>13436</v>
+      </c>
+      <c r="F196">
+        <v>1605207</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1605207</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2017</v>
+      </c>
+      <c r="B197" t="s">
+        <v>50</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197">
+        <v>66198</v>
+      </c>
+      <c r="F197">
+        <v>3489533</v>
+      </c>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>3489533</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2017</v>
+      </c>
+      <c r="B198" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" t="s">
+        <v>46</v>
+      </c>
+      <c r="E198">
+        <v>10315</v>
+      </c>
+      <c r="F198">
+        <v>2857667</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>2857667</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2017</v>
+      </c>
+      <c r="B199" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" t="s">
+        <v>53</v>
+      </c>
+      <c r="E199">
+        <v>765</v>
+      </c>
+      <c r="F199">
+        <v>1275779</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1275779</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>2017</v>
+      </c>
+      <c r="B200" t="s">
+        <v>37</v>
+      </c>
+      <c r="C200" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200">
+        <v>483497103</v>
+      </c>
+      <c r="E200">
+        <v>18237</v>
+      </c>
+      <c r="F200">
+        <v>2579490</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" t="s">
+        <v>16</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2579490</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>2016</v>
+      </c>
+      <c r="B201" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201">
+        <v>12754</v>
+      </c>
+      <c r="F201">
+        <v>7546692</v>
+      </c>
+      <c r="G201" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>7546692</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>2016</v>
+      </c>
+      <c r="B202" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" t="s">
+        <v>43</v>
+      </c>
+      <c r="E202">
+        <v>13277</v>
+      </c>
+      <c r="F202">
+        <v>1932607</v>
+      </c>
+      <c r="G202" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1932607</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2016</v>
+      </c>
+      <c r="B203" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203">
+        <v>77398</v>
+      </c>
+      <c r="F203">
+        <v>3489533</v>
+      </c>
+      <c r="G203" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>3489533</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2016</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" t="s">
+        <v>46</v>
+      </c>
+      <c r="E204">
+        <v>17602</v>
+      </c>
+      <c r="F204">
+        <v>2857667</v>
+      </c>
+      <c r="G204" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>2857667</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>2016</v>
+      </c>
+      <c r="B205" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" t="s">
+        <v>53</v>
+      </c>
+      <c r="E205">
+        <v>1199</v>
+      </c>
+      <c r="F205">
+        <v>1275779</v>
+      </c>
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205" t="s">
+        <v>16</v>
+      </c>
+      <c r="I205" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1275779</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2016</v>
+      </c>
+      <c r="B206" t="s">
+        <v>54</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" t="s">
+        <v>55</v>
+      </c>
+      <c r="E206">
+        <v>7966</v>
+      </c>
+      <c r="F206">
+        <v>888132</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>888132</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2016</v>
+      </c>
+      <c r="B207" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207">
+        <v>9207</v>
+      </c>
+      <c r="F207">
+        <v>7546692</v>
+      </c>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>7546692</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2016</v>
+      </c>
+      <c r="B208" t="s">
+        <v>42</v>
+      </c>
+      <c r="C208" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" t="s">
+        <v>43</v>
+      </c>
+      <c r="E208">
+        <v>9566</v>
+      </c>
+      <c r="F208">
+        <v>1932607</v>
+      </c>
+      <c r="G208" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1932607</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2016</v>
+      </c>
+      <c r="B209" t="s">
+        <v>50</v>
+      </c>
+      <c r="C209" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" t="s">
+        <v>51</v>
+      </c>
+      <c r="E209">
+        <v>63754</v>
+      </c>
+      <c r="F209">
+        <v>3489533</v>
+      </c>
+      <c r="G209" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" t="s">
+        <v>16</v>
+      </c>
+      <c r="I209" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>3489533</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2016</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210">
+        <v>10573</v>
+      </c>
+      <c r="F210">
+        <v>2857667</v>
+      </c>
+      <c r="G210" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" t="s">
+        <v>16</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>2857667</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2016</v>
+      </c>
+      <c r="B211" t="s">
+        <v>52</v>
+      </c>
+      <c r="C211" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" t="s">
+        <v>53</v>
+      </c>
+      <c r="E211">
+        <v>1174</v>
+      </c>
+      <c r="F211">
+        <v>1077499</v>
+      </c>
+      <c r="G211" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1077499</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2016</v>
+      </c>
+      <c r="B212" t="s">
+        <v>54</v>
+      </c>
+      <c r="C212" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>55</v>
+      </c>
+      <c r="E212">
+        <v>4769</v>
+      </c>
+      <c r="F212">
+        <v>888132</v>
+      </c>
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>888132</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2016</v>
+      </c>
+      <c r="B213" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213">
+        <v>32073</v>
+      </c>
+      <c r="F213">
+        <v>7546692</v>
+      </c>
+      <c r="G213" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>7546692</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2016</v>
+      </c>
+      <c r="B214" t="s">
+        <v>42</v>
+      </c>
+      <c r="C214" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214">
+        <v>18669</v>
+      </c>
+      <c r="F214">
+        <v>1932607</v>
+      </c>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1932607</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2016</v>
+      </c>
+      <c r="B215" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" t="s">
+        <v>51</v>
+      </c>
+      <c r="E215">
+        <v>63475</v>
+      </c>
+      <c r="F215">
+        <v>3489533</v>
+      </c>
+      <c r="G215" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" t="s">
+        <v>17</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>3489533</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2016</v>
+      </c>
+      <c r="B216" t="s">
+        <v>40</v>
+      </c>
+      <c r="C216" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" t="s">
+        <v>46</v>
+      </c>
+      <c r="E216">
+        <v>14403</v>
+      </c>
+      <c r="F216">
+        <v>2857667</v>
+      </c>
+      <c r="G216" t="s">
+        <v>15</v>
+      </c>
+      <c r="H216" t="s">
+        <v>16</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>2857667</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2016</v>
+      </c>
+      <c r="B217" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217">
+        <v>1131</v>
+      </c>
+      <c r="F217">
+        <v>1077499</v>
+      </c>
+      <c r="G217" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1077499</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2016</v>
+      </c>
+      <c r="B218" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" t="s">
+        <v>55</v>
+      </c>
+      <c r="E218">
+        <v>4085</v>
+      </c>
+      <c r="F218">
+        <v>888132</v>
+      </c>
+      <c r="G218" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>888132</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2016</v>
+      </c>
+      <c r="B219" t="s">
+        <v>35</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219">
+        <v>18716</v>
+      </c>
+      <c r="F219">
+        <v>7546692</v>
+      </c>
+      <c r="G219" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" t="s">
+        <v>16</v>
+      </c>
+      <c r="I219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>7546692</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2016</v>
+      </c>
+      <c r="B220" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" t="s">
+        <v>43</v>
+      </c>
+      <c r="E220">
+        <v>18109</v>
+      </c>
+      <c r="F220">
+        <v>1932607</v>
+      </c>
+      <c r="G220" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" t="s">
+        <v>16</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1932607</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2016</v>
+      </c>
+      <c r="B221" t="s">
+        <v>50</v>
+      </c>
+      <c r="C221" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221">
+        <v>58834</v>
+      </c>
+      <c r="F221">
+        <v>3489533</v>
+      </c>
+      <c r="G221" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221" t="s">
+        <v>16</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>3489533</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2016</v>
+      </c>
+      <c r="B222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C222" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" t="s">
+        <v>46</v>
+      </c>
+      <c r="E222">
+        <v>22661</v>
+      </c>
+      <c r="F222">
+        <v>2857667</v>
+      </c>
+      <c r="G222" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2857667</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2016</v>
+      </c>
+      <c r="B223" t="s">
+        <v>52</v>
+      </c>
+      <c r="C223" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223">
+        <v>1455</v>
+      </c>
+      <c r="F223">
+        <v>1077499</v>
+      </c>
+      <c r="G223" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223" t="s">
+        <v>16</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1077499</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2016</v>
+      </c>
+      <c r="B224" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224">
+        <v>4618</v>
+      </c>
+      <c r="F224">
+        <v>888132</v>
+      </c>
+      <c r="G224" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>888132</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2015</v>
+      </c>
+      <c r="B225" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225">
+        <v>683745103</v>
+      </c>
+      <c r="E225">
+        <v>34432</v>
+      </c>
+      <c r="F225">
+        <v>849744</v>
+      </c>
+      <c r="G225" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>849744</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2015</v>
+      </c>
+      <c r="B226" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226">
+        <v>683745103</v>
+      </c>
+      <c r="E226">
+        <v>10302</v>
+      </c>
+      <c r="F226">
+        <v>254237</v>
+      </c>
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" t="s">
+        <v>57</v>
+      </c>
+      <c r="J226">
+        <v>254237</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2015</v>
+      </c>
+      <c r="B227" t="s">
+        <v>58</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>36</v>
+      </c>
+      <c r="E227">
+        <v>17056</v>
+      </c>
+      <c r="F227">
+        <v>7546692</v>
+      </c>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>7546692</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2015</v>
+      </c>
+      <c r="B228" t="s">
+        <v>59</v>
+      </c>
+      <c r="C228" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228">
+        <v>27172</v>
+      </c>
+      <c r="F228">
+        <v>1932607</v>
+      </c>
+      <c r="G228" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1932607</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2015</v>
+      </c>
+      <c r="B229" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229">
+        <v>62881</v>
+      </c>
+      <c r="F229">
+        <v>3489533</v>
+      </c>
+      <c r="G229" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" t="s">
+        <v>16</v>
+      </c>
+      <c r="I229" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>3489533</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2015</v>
+      </c>
+      <c r="B230" t="s">
+        <v>61</v>
+      </c>
+      <c r="C230" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" t="s">
+        <v>46</v>
+      </c>
+      <c r="E230">
+        <v>23118</v>
+      </c>
+      <c r="F230">
+        <v>2857667</v>
+      </c>
+      <c r="G230" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" t="s">
+        <v>16</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>2857667</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2015</v>
+      </c>
+      <c r="B231" t="s">
+        <v>62</v>
+      </c>
+      <c r="C231" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" t="s">
+        <v>53</v>
+      </c>
+      <c r="E231">
+        <v>3847</v>
+      </c>
+      <c r="F231">
+        <v>1077499</v>
+      </c>
+      <c r="G231" t="s">
+        <v>15</v>
+      </c>
+      <c r="H231" t="s">
+        <v>16</v>
+      </c>
+      <c r="I231" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1077499</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2015</v>
+      </c>
+      <c r="B232" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232">
+        <v>683745103</v>
+      </c>
+      <c r="E232">
+        <v>59506</v>
+      </c>
+      <c r="F232">
+        <v>1143019</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" t="s">
+        <v>16</v>
+      </c>
+      <c r="I232" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1143019</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>2015</v>
+      </c>
+      <c r="B233" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233">
+        <v>683745103</v>
+      </c>
+      <c r="E233">
+        <v>13236</v>
+      </c>
+      <c r="F233">
+        <v>254237</v>
+      </c>
+      <c r="G233" t="s">
+        <v>15</v>
+      </c>
+      <c r="H233" t="s">
+        <v>57</v>
+      </c>
+      <c r="J233">
+        <v>254237</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>2015</v>
+      </c>
+      <c r="B234" t="s">
+        <v>35</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>36</v>
+      </c>
+      <c r="E234">
+        <v>22640</v>
+      </c>
+      <c r="F234">
+        <v>7546692</v>
+      </c>
+      <c r="G234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234" t="s">
+        <v>16</v>
+      </c>
+      <c r="I234" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>7546692</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2015</v>
+      </c>
+      <c r="B235" t="s">
+        <v>42</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" t="s">
+        <v>43</v>
+      </c>
+      <c r="E235">
+        <v>40643</v>
+      </c>
+      <c r="F235">
+        <v>1932607</v>
+      </c>
+      <c r="G235" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235" t="s">
+        <v>16</v>
+      </c>
+      <c r="I235" t="s">
+        <v>17</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1932607</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2015</v>
+      </c>
+      <c r="B236" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" t="s">
+        <v>51</v>
+      </c>
+      <c r="E236">
+        <v>90274</v>
+      </c>
+      <c r="F236">
+        <v>3489533</v>
+      </c>
+      <c r="G236" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" t="s">
+        <v>16</v>
+      </c>
+      <c r="I236" t="s">
+        <v>17</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>3489533</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2015</v>
+      </c>
+      <c r="B237" t="s">
+        <v>61</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237">
+        <v>34892</v>
+      </c>
+      <c r="F237">
+        <v>2857667</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>2857667</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>2015</v>
+      </c>
+      <c r="B238" t="s">
+        <v>64</v>
+      </c>
+      <c r="C238" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238">
+        <v>683745103</v>
+      </c>
+      <c r="E238">
+        <v>83703</v>
+      </c>
+      <c r="F238">
+        <v>1798906</v>
+      </c>
+      <c r="G238" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" t="s">
+        <v>16</v>
+      </c>
+      <c r="I238" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1798906</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>2015</v>
+      </c>
+      <c r="B239" t="s">
+        <v>64</v>
+      </c>
+      <c r="C239" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239">
+        <v>683745103</v>
+      </c>
+      <c r="E239">
+        <v>11830</v>
+      </c>
+      <c r="F239">
+        <v>254237</v>
+      </c>
+      <c r="G239" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" t="s">
+        <v>57</v>
+      </c>
+      <c r="J239">
+        <v>254237</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>2015</v>
+      </c>
+      <c r="B240" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>36</v>
+      </c>
+      <c r="E240">
+        <v>22112</v>
+      </c>
+      <c r="F240">
+        <v>7546692</v>
+      </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240" t="s">
+        <v>16</v>
+      </c>
+      <c r="I240" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>7546692</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2015</v>
+      </c>
+      <c r="B241" t="s">
+        <v>42</v>
+      </c>
+      <c r="C241" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" t="s">
+        <v>43</v>
+      </c>
+      <c r="E241">
+        <v>108570</v>
+      </c>
+      <c r="F241">
+        <v>2585607</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241" t="s">
+        <v>16</v>
+      </c>
+      <c r="I241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>2585607</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>2015</v>
+      </c>
+      <c r="B242" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" t="s">
+        <v>51</v>
+      </c>
+      <c r="E242">
+        <v>76421</v>
+      </c>
+      <c r="F242">
+        <v>3489533</v>
+      </c>
+      <c r="G242" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" t="s">
+        <v>16</v>
+      </c>
+      <c r="I242" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>3489533</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>2015</v>
+      </c>
+      <c r="B243" t="s">
+        <v>64</v>
+      </c>
+      <c r="C243" t="s">
+        <v>19</v>
+      </c>
+      <c r="D243">
+        <v>683745103</v>
+      </c>
+      <c r="E243">
+        <v>106222</v>
+      </c>
+      <c r="F243">
+        <v>2367338</v>
+      </c>
+      <c r="G243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" t="s">
+        <v>16</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>2367338</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>2015</v>
+      </c>
+      <c r="B244" t="s">
+        <v>64</v>
+      </c>
+      <c r="C244" t="s">
+        <v>19</v>
+      </c>
+      <c r="D244">
+        <v>683745103</v>
+      </c>
+      <c r="E244">
+        <v>11408</v>
+      </c>
+      <c r="F244">
+        <v>254237</v>
+      </c>
+      <c r="G244" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" t="s">
+        <v>57</v>
+      </c>
+      <c r="J244">
+        <v>254237</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>2015</v>
+      </c>
+      <c r="B245" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>36</v>
+      </c>
+      <c r="E245">
+        <v>21961</v>
+      </c>
+      <c r="F245">
+        <v>7546692</v>
+      </c>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>7546692</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>2015</v>
+      </c>
+      <c r="B246" t="s">
+        <v>42</v>
+      </c>
+      <c r="C246" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" t="s">
+        <v>43</v>
+      </c>
+      <c r="E246">
+        <v>60813</v>
+      </c>
+      <c r="F246">
+        <v>2585607</v>
+      </c>
+      <c r="G246" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246" t="s">
+        <v>16</v>
+      </c>
+      <c r="I246" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>2585607</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>2014</v>
+      </c>
+      <c r="B247" t="s">
+        <v>64</v>
+      </c>
+      <c r="C247" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247">
+        <v>683745103</v>
+      </c>
+      <c r="E247">
+        <v>118910</v>
+      </c>
+      <c r="F247">
+        <v>3054458</v>
+      </c>
+      <c r="G247" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" t="s">
+        <v>16</v>
+      </c>
+      <c r="I247" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>3054458</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>2014</v>
+      </c>
+      <c r="B248" t="s">
+        <v>64</v>
+      </c>
+      <c r="C248" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248">
+        <v>683745103</v>
+      </c>
+      <c r="E248">
+        <v>9897</v>
+      </c>
+      <c r="F248">
+        <v>254237</v>
+      </c>
+      <c r="G248" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" t="s">
+        <v>57</v>
+      </c>
+      <c r="J248">
+        <v>254237</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>2014</v>
+      </c>
+      <c r="B249" t="s">
+        <v>35</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>36</v>
+      </c>
+      <c r="E249">
+        <v>32903</v>
+      </c>
+      <c r="F249">
+        <v>7546692</v>
+      </c>
+      <c r="G249" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249" t="s">
+        <v>16</v>
+      </c>
+      <c r="I249" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>7546692</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>2014</v>
+      </c>
+      <c r="B250" t="s">
+        <v>42</v>
+      </c>
+      <c r="C250" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" t="s">
+        <v>43</v>
+      </c>
+      <c r="E250">
+        <v>38707</v>
+      </c>
+      <c r="F250">
+        <v>2585607</v>
+      </c>
+      <c r="G250" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" t="s">
+        <v>16</v>
+      </c>
+      <c r="I250" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>2585607</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>2014</v>
+      </c>
+      <c r="B251" t="s">
+        <v>64</v>
+      </c>
+      <c r="C251" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251">
+        <v>683745103</v>
+      </c>
+      <c r="E251">
+        <v>129234</v>
+      </c>
+      <c r="F251">
+        <v>3054458</v>
+      </c>
+      <c r="G251" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251" t="s">
+        <v>16</v>
+      </c>
+      <c r="I251" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>3054458</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>2014</v>
+      </c>
+      <c r="B252" t="s">
+        <v>64</v>
+      </c>
+      <c r="C252" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252">
+        <v>683745103</v>
+      </c>
+      <c r="E252">
+        <v>10757</v>
+      </c>
+      <c r="F252">
+        <v>254237</v>
+      </c>
+      <c r="G252" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252" t="s">
+        <v>57</v>
+      </c>
+      <c r="J252">
+        <v>254237</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>2014</v>
+      </c>
+      <c r="B253" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" t="s">
+        <v>36</v>
+      </c>
+      <c r="E253">
+        <v>38035</v>
+      </c>
+      <c r="F253">
+        <v>7546692</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253" t="s">
+        <v>16</v>
+      </c>
+      <c r="I253" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>7546692</v>
+      </c>
+      <c r="L253">
         <v>0</v>
       </c>
     </row>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63286C3-A18A-A044-801E-A3C46EB462BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EBFEF9-D711-1C42-9B3C-83FC91E462F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="760" windowWidth="28060" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11506" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11879" uniqueCount="867">
   <si>
     <t>COM NEW</t>
   </si>
@@ -2989,7 +2989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DBE7DD-EA50-0848-ABCD-4874656132C1}">
-  <dimension ref="A1:L2115"/>
+  <dimension ref="A1:L2181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0"/>
   </sheetViews>
@@ -77779,7 +77779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2113">
         <v>2013</v>
       </c>
@@ -77814,7 +77814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2114">
         <v>2013</v>
       </c>
@@ -77849,7 +77849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2115">
         <v>2013</v>
       </c>
@@ -77881,6 +77881,2514 @@
         <v>0</v>
       </c>
       <c r="K2115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2116">
+        <v>2023</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2116" s="1">
+        <v>3.5104000000000003E+104</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2116">
+        <v>52997676</v>
+      </c>
+      <c r="G2116">
+        <v>4163211</v>
+      </c>
+      <c r="H2116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2116" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2116">
+        <v>4163211</v>
+      </c>
+      <c r="K2116">
+        <v>0</v>
+      </c>
+      <c r="L2116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2117">
+        <v>2023</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2117">
+        <v>282559103</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2117">
+        <v>176277677</v>
+      </c>
+      <c r="G2117">
+        <v>11416948</v>
+      </c>
+      <c r="H2117" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2117" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2117">
+        <v>11416948</v>
+      </c>
+      <c r="K2117">
+        <v>0</v>
+      </c>
+      <c r="L2117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2118">
+        <v>2023</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2118">
+        <v>30129403</v>
+      </c>
+      <c r="G2118">
+        <v>4398453</v>
+      </c>
+      <c r="H2118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2118" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2118">
+        <v>4398453</v>
+      </c>
+      <c r="K2118">
+        <v>0</v>
+      </c>
+      <c r="L2118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2119">
+        <v>2023</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2119">
+        <v>4890109</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2119">
+        <v>45988456</v>
+      </c>
+      <c r="G2119">
+        <v>4810508</v>
+      </c>
+      <c r="H2119" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2119" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2119">
+        <v>4810508</v>
+      </c>
+      <c r="K2119">
+        <v>0</v>
+      </c>
+      <c r="L2119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2120">
+        <v>2023</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2120">
+        <v>61968061</v>
+      </c>
+      <c r="G2120">
+        <v>14932063</v>
+      </c>
+      <c r="H2120" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2120">
+        <v>14932063</v>
+      </c>
+      <c r="K2120">
+        <v>0</v>
+      </c>
+      <c r="L2120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2121">
+        <v>2023</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2121">
+        <v>8064107</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2121">
+        <v>112142236</v>
+      </c>
+      <c r="G2121">
+        <v>8263982</v>
+      </c>
+      <c r="H2121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2121" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2121">
+        <v>8263982</v>
+      </c>
+      <c r="K2121">
+        <v>0</v>
+      </c>
+      <c r="L2121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2122">
+        <v>2023</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2122">
+        <v>53713988</v>
+      </c>
+      <c r="G2122">
+        <v>4691178</v>
+      </c>
+      <c r="H2122" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2122" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2122">
+        <v>4691178</v>
+      </c>
+      <c r="K2122">
+        <v>0</v>
+      </c>
+      <c r="L2122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2123">
+        <v>2023</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2123">
+        <v>37326105</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2123">
+        <v>89264824</v>
+      </c>
+      <c r="G2123">
+        <v>5551295</v>
+      </c>
+      <c r="H2123" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2123" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2123">
+        <v>5551295</v>
+      </c>
+      <c r="K2123">
+        <v>0</v>
+      </c>
+      <c r="L2123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2124">
+        <v>2023</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2124">
+        <v>35757583</v>
+      </c>
+      <c r="G2124">
+        <v>9459678</v>
+      </c>
+      <c r="H2124" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2124">
+        <v>9459678</v>
+      </c>
+      <c r="K2124">
+        <v>0</v>
+      </c>
+      <c r="L2124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2125">
+        <v>2023</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2125">
+        <v>1003779130</v>
+      </c>
+      <c r="G2125">
+        <v>10719555</v>
+      </c>
+      <c r="H2125" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2125" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2125">
+        <v>10719555</v>
+      </c>
+      <c r="K2125">
+        <v>0</v>
+      </c>
+      <c r="L2125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2126">
+        <v>2023</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2126">
+        <v>40940447</v>
+      </c>
+      <c r="G2126">
+        <v>6416998</v>
+      </c>
+      <c r="H2126" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2126" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2126">
+        <v>6416998</v>
+      </c>
+      <c r="K2126">
+        <v>0</v>
+      </c>
+      <c r="L2126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2127">
+        <v>2023</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2127">
+        <v>69890000</v>
+      </c>
+      <c r="G2127">
+        <v>1000000</v>
+      </c>
+      <c r="H2127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2127" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2127">
+        <v>1000000</v>
+      </c>
+      <c r="K2127">
+        <v>0</v>
+      </c>
+      <c r="L2127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2128">
+        <v>2023</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2128">
+        <v>88786108</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2128">
+        <v>16072000</v>
+      </c>
+      <c r="G2128">
+        <v>800000</v>
+      </c>
+      <c r="H2128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2128" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2128">
+        <v>800000</v>
+      </c>
+      <c r="K2128">
+        <v>0</v>
+      </c>
+      <c r="L2128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2129">
+        <v>2023</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2129">
+        <v>136958573</v>
+      </c>
+      <c r="G2129">
+        <v>532892</v>
+      </c>
+      <c r="H2129" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2129" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2129">
+        <v>532892</v>
+      </c>
+      <c r="K2129">
+        <v>0</v>
+      </c>
+      <c r="L2129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2130">
+        <v>2023</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2130" s="1">
+        <v>9.2029999999999997E+108</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2130">
+        <v>10118914</v>
+      </c>
+      <c r="G2130">
+        <v>3525754</v>
+      </c>
+      <c r="H2130" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2130">
+        <v>3525754</v>
+      </c>
+      <c r="K2130">
+        <v>0</v>
+      </c>
+      <c r="L2130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2131">
+        <v>2023</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2131">
+        <v>12796009</v>
+      </c>
+      <c r="G2131">
+        <v>1400001</v>
+      </c>
+      <c r="H2131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2131">
+        <v>1400001</v>
+      </c>
+      <c r="K2131">
+        <v>0</v>
+      </c>
+      <c r="L2131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2132">
+        <v>2023</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2132">
+        <v>6240259</v>
+      </c>
+      <c r="G2132">
+        <v>6501624</v>
+      </c>
+      <c r="H2132" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2132" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2132">
+        <v>6501624</v>
+      </c>
+      <c r="K2132">
+        <v>0</v>
+      </c>
+      <c r="L2132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2133">
+        <v>2023</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2133">
+        <v>62557433</v>
+      </c>
+      <c r="G2133">
+        <v>6416147</v>
+      </c>
+      <c r="H2133" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2133" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2133">
+        <v>6416147</v>
+      </c>
+      <c r="K2133">
+        <v>0</v>
+      </c>
+      <c r="L2133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2134">
+        <v>2023</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2134">
+        <v>207523101</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2134">
+        <v>5725631</v>
+      </c>
+      <c r="G2134">
+        <v>6991003</v>
+      </c>
+      <c r="H2134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2134" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2134">
+        <v>6991003</v>
+      </c>
+      <c r="K2134">
+        <v>0</v>
+      </c>
+      <c r="L2134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2135">
+        <v>2023</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2135">
+        <v>9516400</v>
+      </c>
+      <c r="G2135">
+        <v>1286000</v>
+      </c>
+      <c r="H2135" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2135" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2135">
+        <v>1286000</v>
+      </c>
+      <c r="K2135">
+        <v>0</v>
+      </c>
+      <c r="L2135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2136">
+        <v>2023</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2136">
+        <v>72427670</v>
+      </c>
+      <c r="G2136">
+        <v>10604344</v>
+      </c>
+      <c r="H2136" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2136" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2136">
+        <v>10604344</v>
+      </c>
+      <c r="K2136">
+        <v>0</v>
+      </c>
+      <c r="L2136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2137">
+        <v>2023</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2137">
+        <v>103475400</v>
+      </c>
+      <c r="G2137">
+        <v>6940000</v>
+      </c>
+      <c r="H2137" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2137" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2137">
+        <v>6940000</v>
+      </c>
+      <c r="K2137">
+        <v>0</v>
+      </c>
+      <c r="L2137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2138">
+        <v>2023</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2138">
+        <v>95826884</v>
+      </c>
+      <c r="G2138">
+        <v>7809852</v>
+      </c>
+      <c r="H2138" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2138" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2138">
+        <v>7809852</v>
+      </c>
+      <c r="K2138">
+        <v>0</v>
+      </c>
+      <c r="L2138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2139">
+        <v>2023</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2139">
+        <v>34586733</v>
+      </c>
+      <c r="G2139">
+        <v>13150849</v>
+      </c>
+      <c r="H2139" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2139" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2139">
+        <v>13150849</v>
+      </c>
+      <c r="K2139">
+        <v>0</v>
+      </c>
+      <c r="L2139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2140">
+        <v>2023</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2140" s="1">
+        <v>2.9336999999999999E+106</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2140">
+        <v>28992872</v>
+      </c>
+      <c r="G2140">
+        <v>2122465</v>
+      </c>
+      <c r="H2140" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2140" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2140">
+        <v>2122465</v>
+      </c>
+      <c r="K2140">
+        <v>0</v>
+      </c>
+      <c r="L2140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2141">
+        <v>2023</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2141">
+        <v>74519796</v>
+      </c>
+      <c r="G2141">
+        <v>2736680</v>
+      </c>
+      <c r="H2141" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2141" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2141">
+        <v>2736680</v>
+      </c>
+      <c r="K2141">
+        <v>0</v>
+      </c>
+      <c r="L2141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2142">
+        <v>2023</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2142">
+        <v>26930343</v>
+      </c>
+      <c r="G2142">
+        <v>3370506</v>
+      </c>
+      <c r="H2142" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2142" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2142">
+        <v>3370506</v>
+      </c>
+      <c r="K2142">
+        <v>0</v>
+      </c>
+      <c r="L2142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2143">
+        <v>2023</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2143">
+        <v>359616109</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2143">
+        <v>51547086</v>
+      </c>
+      <c r="G2143">
+        <v>11609704</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2143" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2143">
+        <v>11609704</v>
+      </c>
+      <c r="K2143">
+        <v>0</v>
+      </c>
+      <c r="L2143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2144">
+        <v>2023</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2144">
+        <v>374163103</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2144">
+        <v>97949141</v>
+      </c>
+      <c r="G2144">
+        <v>46202425</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2144" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2144">
+        <v>46202425</v>
+      </c>
+      <c r="K2144">
+        <v>0</v>
+      </c>
+      <c r="L2144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2145">
+        <v>2023</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2145">
+        <v>56152697</v>
+      </c>
+      <c r="G2145">
+        <v>5587333</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2145" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2145">
+        <v>5587333</v>
+      </c>
+      <c r="K2145">
+        <v>0</v>
+      </c>
+      <c r="L2145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2146">
+        <v>2023</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2146">
+        <v>46217629</v>
+      </c>
+      <c r="G2146">
+        <v>5963565</v>
+      </c>
+      <c r="H2146" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2146" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2146">
+        <v>5963565</v>
+      </c>
+      <c r="K2146">
+        <v>0</v>
+      </c>
+      <c r="L2146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2147">
+        <v>2023</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2147">
+        <v>449585108</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2147">
+        <v>7828125</v>
+      </c>
+      <c r="G2147">
+        <v>937500</v>
+      </c>
+      <c r="H2147" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2147" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2147">
+        <v>937500</v>
+      </c>
+      <c r="K2147">
+        <v>0</v>
+      </c>
+      <c r="L2147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2148">
+        <v>2023</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2148">
+        <v>211424711</v>
+      </c>
+      <c r="G2148">
+        <v>13322288</v>
+      </c>
+      <c r="H2148" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2148">
+        <v>13322288</v>
+      </c>
+      <c r="K2148">
+        <v>0</v>
+      </c>
+      <c r="L2148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2149">
+        <v>2023</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2149">
+        <v>86689198</v>
+      </c>
+      <c r="G2149">
+        <v>4724207</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2149" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2149">
+        <v>4724207</v>
+      </c>
+      <c r="K2149">
+        <v>0</v>
+      </c>
+      <c r="L2149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2150">
+        <v>2023</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2150">
+        <v>48368986</v>
+      </c>
+      <c r="G2150">
+        <v>4417259</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2150" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2150">
+        <v>4417259</v>
+      </c>
+      <c r="K2150">
+        <v>0</v>
+      </c>
+      <c r="L2150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2151">
+        <v>2023</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2151">
+        <v>92389772</v>
+      </c>
+      <c r="G2151">
+        <v>9165652</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2151" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2151">
+        <v>9165652</v>
+      </c>
+      <c r="K2151">
+        <v>0</v>
+      </c>
+      <c r="L2151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2152">
+        <v>2023</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2152">
+        <v>420800369</v>
+      </c>
+      <c r="G2152">
+        <v>6264707</v>
+      </c>
+      <c r="H2152" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2152" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2152">
+        <v>6264707</v>
+      </c>
+      <c r="K2152">
+        <v>0</v>
+      </c>
+      <c r="L2152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2153">
+        <v>2023</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2153">
+        <v>556099109</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2153">
+        <v>1593720</v>
+      </c>
+      <c r="G2153">
+        <v>342000</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2153" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2153">
+        <v>342000</v>
+      </c>
+      <c r="K2153">
+        <v>0</v>
+      </c>
+      <c r="L2153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2154">
+        <v>2023</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2154">
+        <v>558868105</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2154">
+        <v>29865180</v>
+      </c>
+      <c r="G2154">
+        <v>204500</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2154" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2154">
+        <v>204500</v>
+      </c>
+      <c r="K2154">
+        <v>0</v>
+      </c>
+      <c r="L2154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2155">
+        <v>2023</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2155">
+        <v>603170101</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2155">
+        <v>30227307</v>
+      </c>
+      <c r="G2155">
+        <v>3178476</v>
+      </c>
+      <c r="H2155" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2155" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2155">
+        <v>3178476</v>
+      </c>
+      <c r="K2155">
+        <v>0</v>
+      </c>
+      <c r="L2155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2156">
+        <v>2023</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2156">
+        <v>2964202</v>
+      </c>
+      <c r="G2156">
+        <v>1723373</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2156" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2156">
+        <v>1723373</v>
+      </c>
+      <c r="K2156">
+        <v>0</v>
+      </c>
+      <c r="L2156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2157">
+        <v>2023</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2157">
+        <v>640268108</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2157">
+        <v>11137720</v>
+      </c>
+      <c r="G2157">
+        <v>18700000</v>
+      </c>
+      <c r="H2157" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2157" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2157">
+        <v>18700000</v>
+      </c>
+      <c r="K2157">
+        <v>0</v>
+      </c>
+      <c r="L2157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2158">
+        <v>2023</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2158">
+        <v>83250000</v>
+      </c>
+      <c r="G2158">
+        <v>9000000</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2158" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2158">
+        <v>9000000</v>
+      </c>
+      <c r="K2158">
+        <v>0</v>
+      </c>
+      <c r="L2158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2159">
+        <v>2023</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2159">
+        <v>10849129</v>
+      </c>
+      <c r="G2159">
+        <v>7805129</v>
+      </c>
+      <c r="H2159" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2159" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2159">
+        <v>7805129</v>
+      </c>
+      <c r="K2159">
+        <v>0</v>
+      </c>
+      <c r="L2159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2160">
+        <v>2023</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2160">
+        <v>713317105</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2160">
+        <v>41310316</v>
+      </c>
+      <c r="G2160">
+        <v>8131952</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2160" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2160">
+        <v>8131952</v>
+      </c>
+      <c r="K2160">
+        <v>0</v>
+      </c>
+      <c r="L2160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2161">
+        <v>2023</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2161">
+        <v>729139105</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2161">
+        <v>30553080</v>
+      </c>
+      <c r="G2161">
+        <v>1762000</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2161" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2161">
+        <v>1762000</v>
+      </c>
+      <c r="K2161">
+        <v>0</v>
+      </c>
+      <c r="L2161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2162">
+        <v>2023</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2162">
+        <v>130123836</v>
+      </c>
+      <c r="G2162">
+        <v>5676067</v>
+      </c>
+      <c r="H2162" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2162" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2162">
+        <v>5676067</v>
+      </c>
+      <c r="K2162">
+        <v>0</v>
+      </c>
+      <c r="L2162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2163">
+        <v>2023</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2163">
+        <v>85142480</v>
+      </c>
+      <c r="G2163">
+        <v>3052796</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2163" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2163">
+        <v>3052796</v>
+      </c>
+      <c r="K2163">
+        <v>0</v>
+      </c>
+      <c r="L2163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2164">
+        <v>2023</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2164">
+        <v>834203309</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2164">
+        <v>36562890</v>
+      </c>
+      <c r="G2164">
+        <v>1239000</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2164" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2164">
+        <v>1239000</v>
+      </c>
+      <c r="K2164">
+        <v>0</v>
+      </c>
+      <c r="L2164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2165">
+        <v>2023</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2165" s="1">
+        <v>8.3422000000000001E+208</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2165">
+        <v>8634241</v>
+      </c>
+      <c r="G2165">
+        <v>3426286</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2165" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2165">
+        <v>3426286</v>
+      </c>
+      <c r="K2165">
+        <v>0</v>
+      </c>
+      <c r="L2165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2166">
+        <v>2023</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2166">
+        <v>6753099</v>
+      </c>
+      <c r="G2166">
+        <v>2403238</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2166" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2166">
+        <v>2403238</v>
+      </c>
+      <c r="K2166">
+        <v>0</v>
+      </c>
+      <c r="L2166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2167">
+        <v>2023</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2167">
+        <v>877619106</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2167">
+        <v>58373109</v>
+      </c>
+      <c r="G2167">
+        <v>18472503</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2167" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2167">
+        <v>18472503</v>
+      </c>
+      <c r="K2167">
+        <v>0</v>
+      </c>
+      <c r="L2167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2168">
+        <v>2023</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2168">
+        <v>17132132</v>
+      </c>
+      <c r="G2168">
+        <v>6718483</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2168" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2168">
+        <v>6718483</v>
+      </c>
+      <c r="K2168">
+        <v>0</v>
+      </c>
+      <c r="L2168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2169">
+        <v>2023</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2169">
+        <v>6146305</v>
+      </c>
+      <c r="G2169">
+        <v>961863</v>
+      </c>
+      <c r="H2169" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2169">
+        <v>961863</v>
+      </c>
+      <c r="K2169">
+        <v>0</v>
+      </c>
+      <c r="L2169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2170">
+        <v>2023</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2170">
+        <v>99645972</v>
+      </c>
+      <c r="G2170">
+        <v>7236454</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2170" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2170">
+        <v>7236454</v>
+      </c>
+      <c r="K2170">
+        <v>0</v>
+      </c>
+      <c r="L2170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2171">
+        <v>2023</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2171">
+        <v>2984792</v>
+      </c>
+      <c r="G2171">
+        <v>3470688</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2171" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2171">
+        <v>3470688</v>
+      </c>
+      <c r="K2171">
+        <v>0</v>
+      </c>
+      <c r="L2171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2172">
+        <v>2023</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2172">
+        <v>20786595</v>
+      </c>
+      <c r="G2172">
+        <v>1483697</v>
+      </c>
+      <c r="H2172" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2172" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2172">
+        <v>1483697</v>
+      </c>
+      <c r="K2172">
+        <v>0</v>
+      </c>
+      <c r="L2172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2173">
+        <v>2023</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2173">
+        <v>402296129</v>
+      </c>
+      <c r="G2173">
+        <v>7891254</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2173" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2173">
+        <v>7891254</v>
+      </c>
+      <c r="K2173">
+        <v>0</v>
+      </c>
+      <c r="L2173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2174">
+        <v>2023</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2174">
+        <v>30801892</v>
+      </c>
+      <c r="G2174">
+        <v>2007946</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2174" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2174">
+        <v>2007946</v>
+      </c>
+      <c r="K2174">
+        <v>0</v>
+      </c>
+      <c r="L2174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2175">
+        <v>2023</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2175">
+        <v>98911552</v>
+      </c>
+      <c r="G2175">
+        <v>17202009</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2175" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2175">
+        <v>17202009</v>
+      </c>
+      <c r="K2175">
+        <v>0</v>
+      </c>
+      <c r="L2175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2176">
+        <v>2023</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2176">
+        <v>13150045</v>
+      </c>
+      <c r="G2176">
+        <v>6144881</v>
+      </c>
+      <c r="H2176" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2176" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2176">
+        <v>6144881</v>
+      </c>
+      <c r="K2176">
+        <v>0</v>
+      </c>
+      <c r="L2176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2177">
+        <v>2023</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2177">
+        <v>929033108</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2177">
+        <v>48227626</v>
+      </c>
+      <c r="G2177">
+        <v>22748880</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2177" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2177">
+        <v>22748880</v>
+      </c>
+      <c r="K2177">
+        <v>0</v>
+      </c>
+      <c r="L2177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2178">
+        <v>2023</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2178">
+        <v>42129291</v>
+      </c>
+      <c r="G2178">
+        <v>1977901</v>
+      </c>
+      <c r="H2178" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2178" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2178">
+        <v>1977901</v>
+      </c>
+      <c r="K2178">
+        <v>0</v>
+      </c>
+      <c r="L2178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2179">
+        <v>2023</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2179">
+        <v>925050106</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2179">
+        <v>102983237</v>
+      </c>
+      <c r="G2179">
+        <v>6317990</v>
+      </c>
+      <c r="H2179" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2179" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2179">
+        <v>6317990</v>
+      </c>
+      <c r="K2179">
+        <v>0</v>
+      </c>
+      <c r="L2179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2180">
+        <v>2023</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2180">
+        <v>633333</v>
+      </c>
+      <c r="G2180">
+        <v>333333</v>
+      </c>
+      <c r="H2180" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2180" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2180">
+        <v>333333</v>
+      </c>
+      <c r="K2180">
+        <v>0</v>
+      </c>
+      <c r="L2180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2181">
+        <v>2023</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2181">
+        <v>37587910</v>
+      </c>
+      <c r="G2181">
+        <v>6809404</v>
+      </c>
+      <c r="H2181" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2181" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2181">
+        <v>6809404</v>
+      </c>
+      <c r="K2181">
+        <v>0</v>
+      </c>
+      <c r="L2181">
         <v>0</v>
       </c>
     </row>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4570DAD8-6CD4-2742-8BFB-FD049E503B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA55DBE-A60F-F94C-A146-6DCC519E866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="760" windowWidth="28060" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
+    <workbookView xWindow="3560" yWindow="760" windowWidth="28060" windowHeight="17440" activeTab="1" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="RA CAPITAL MANAGEMENT, L.P." sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11135" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11482" uniqueCount="852">
   <si>
     <t>COM NEW</t>
   </si>
@@ -2944,9 +2944,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DBE7DD-EA50-0848-ABCD-4874656132C1}">
-  <dimension ref="A1:L2496"/>
+  <dimension ref="A1:L2562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2394" workbookViewId="0"/>
+    <sheetView topLeftCell="A2551" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -83810,6 +83810,732 @@
       </c>
       <c r="C2496">
         <v>18741887</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2497">
+        <v>2023</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2497">
+        <v>52997676</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2498">
+        <v>2023</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2498">
+        <v>176277677</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2499">
+        <v>2023</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2499">
+        <v>30129403</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2500">
+        <v>2023</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2500">
+        <v>45988456</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2501">
+        <v>2023</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2501">
+        <v>61968061</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2502">
+        <v>2023</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2502">
+        <v>112142236</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2503">
+        <v>2023</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2503">
+        <v>53713988</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2504">
+        <v>2023</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2504">
+        <v>89264824</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2505">
+        <v>2023</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2505">
+        <v>35757583</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2506">
+        <v>2023</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2506">
+        <v>1003779130</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2507">
+        <v>2023</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2507">
+        <v>40940447</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2508">
+        <v>2023</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2508">
+        <v>69890000</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2509">
+        <v>2023</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2509">
+        <v>16072000</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2510">
+        <v>2023</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2510">
+        <v>136958573</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2511">
+        <v>2023</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2511">
+        <v>10118914</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2512">
+        <v>2023</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2512">
+        <v>12796009</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2513">
+        <v>2023</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2513">
+        <v>6240259</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2514">
+        <v>2023</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2514">
+        <v>62557433</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2515">
+        <v>2023</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2515">
+        <v>5725631</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2516">
+        <v>2023</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2516">
+        <v>9516400</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2517">
+        <v>2023</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2517">
+        <v>72427670</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2518">
+        <v>2023</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2518">
+        <v>103475400</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2519">
+        <v>2023</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2519">
+        <v>95826884</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2520">
+        <v>2023</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2520">
+        <v>34586733</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2521">
+        <v>2023</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2521">
+        <v>28992872</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2522">
+        <v>2023</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2522">
+        <v>74519796</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2523">
+        <v>2023</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2523">
+        <v>26930343</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2524">
+        <v>2023</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2524">
+        <v>51547086</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2525">
+        <v>2023</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2525">
+        <v>97949141</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2526">
+        <v>2023</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2526">
+        <v>56152697</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2527">
+        <v>2023</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2527">
+        <v>46217629</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2528">
+        <v>2023</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2528">
+        <v>7828125</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2529">
+        <v>2023</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2529">
+        <v>211424711</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2530">
+        <v>2023</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2530">
+        <v>86689198</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2531">
+        <v>2023</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2531">
+        <v>48368986</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2532">
+        <v>2023</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2532">
+        <v>92389772</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2533">
+        <v>2023</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2533">
+        <v>420800369</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2534">
+        <v>2023</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2534">
+        <v>1593720</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2535">
+        <v>2023</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2535">
+        <v>29865180</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2536">
+        <v>2023</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2536">
+        <v>30227307</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2537">
+        <v>2023</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2537">
+        <v>2964202</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2538">
+        <v>2023</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2538">
+        <v>11137720</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2539">
+        <v>2023</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2539">
+        <v>83250000</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2540">
+        <v>2023</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2540">
+        <v>10849129</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2541">
+        <v>2023</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2541">
+        <v>41310316</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2542">
+        <v>2023</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2542">
+        <v>30553080</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2543">
+        <v>2023</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2543">
+        <v>130123836</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2544">
+        <v>2023</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2544">
+        <v>85142480</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2545">
+        <v>2023</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2545">
+        <v>36562890</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2546">
+        <v>2023</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2546">
+        <v>8634241</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2547">
+        <v>2023</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2547">
+        <v>6753099</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2548">
+        <v>2023</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2548">
+        <v>58373109</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2549">
+        <v>2023</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2549">
+        <v>17132132</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2550">
+        <v>2023</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2550">
+        <v>6146305</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2551">
+        <v>2023</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2551">
+        <v>99645972</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2552">
+        <v>2023</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2552">
+        <v>2984792</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2553">
+        <v>2023</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2553">
+        <v>20786595</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2554">
+        <v>2023</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2554">
+        <v>402296129</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2555">
+        <v>2023</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2555">
+        <v>30801892</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2556">
+        <v>2023</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2556">
+        <v>98911552</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2557">
+        <v>2023</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2557">
+        <v>13150045</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2558">
+        <v>2023</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2558">
+        <v>48227626</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2559">
+        <v>2023</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2559">
+        <v>42129291</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2560">
+        <v>2023</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2560">
+        <v>102983237</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2561">
+        <v>2023</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2561">
+        <v>633333</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2562">
+        <v>2023</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2562">
+        <v>37587910</v>
       </c>
     </row>
   </sheetData>
@@ -83819,9 +84545,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF1BB6E-2638-6F4C-AE3A-D3BA1AF8B8FD}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:D520"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -86454,6 +87180,3226 @@
         <v>38035</v>
       </c>
     </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>2022</v>
+      </c>
+      <c r="B240" t="s">
+        <v>829</v>
+      </c>
+      <c r="C240">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2022</v>
+      </c>
+      <c r="B241" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>2022</v>
+      </c>
+      <c r="B242" t="s">
+        <v>830</v>
+      </c>
+      <c r="C242">
+        <v>21098</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>2022</v>
+      </c>
+      <c r="B243" t="s">
+        <v>831</v>
+      </c>
+      <c r="C243">
+        <v>10420</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>2022</v>
+      </c>
+      <c r="B244" t="s">
+        <v>829</v>
+      </c>
+      <c r="C244">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>2022</v>
+      </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>2022</v>
+      </c>
+      <c r="B246" t="s">
+        <v>830</v>
+      </c>
+      <c r="C246">
+        <v>15220</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>2022</v>
+      </c>
+      <c r="B247" t="s">
+        <v>831</v>
+      </c>
+      <c r="C247">
+        <v>10152</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>2022</v>
+      </c>
+      <c r="B248" t="s">
+        <v>832</v>
+      </c>
+      <c r="C248">
+        <v>17933</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>2022</v>
+      </c>
+      <c r="B249" t="s">
+        <v>829</v>
+      </c>
+      <c r="C249">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>2022</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>2022</v>
+      </c>
+      <c r="B251" t="s">
+        <v>830</v>
+      </c>
+      <c r="C251">
+        <v>40248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>2022</v>
+      </c>
+      <c r="B252" t="s">
+        <v>831</v>
+      </c>
+      <c r="C252">
+        <v>20989</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>2022</v>
+      </c>
+      <c r="B253" t="s">
+        <v>832</v>
+      </c>
+      <c r="C253">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>2022</v>
+      </c>
+      <c r="B254" t="s">
+        <v>829</v>
+      </c>
+      <c r="C254">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>2022</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>2022</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>27149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>2022</v>
+      </c>
+      <c r="B257" t="s">
+        <v>830</v>
+      </c>
+      <c r="C257">
+        <v>55888</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>2022</v>
+      </c>
+      <c r="B258" t="s">
+        <v>831</v>
+      </c>
+      <c r="C258">
+        <v>22909</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>2022</v>
+      </c>
+      <c r="B259" t="s">
+        <v>832</v>
+      </c>
+      <c r="C259">
+        <v>47480</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>2021</v>
+      </c>
+      <c r="B260" t="s">
+        <v>829</v>
+      </c>
+      <c r="C260">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>2021</v>
+      </c>
+      <c r="B261" t="s">
+        <v>833</v>
+      </c>
+      <c r="C261">
+        <v>15289</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>2021</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>2021</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>34466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>2021</v>
+      </c>
+      <c r="B264" t="s">
+        <v>830</v>
+      </c>
+      <c r="C264">
+        <v>59742</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>2021</v>
+      </c>
+      <c r="B265" t="s">
+        <v>834</v>
+      </c>
+      <c r="C265">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>2021</v>
+      </c>
+      <c r="B266" t="s">
+        <v>832</v>
+      </c>
+      <c r="C266">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>2021</v>
+      </c>
+      <c r="B267" t="s">
+        <v>835</v>
+      </c>
+      <c r="C267">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>2021</v>
+      </c>
+      <c r="B268" t="s">
+        <v>829</v>
+      </c>
+      <c r="C268">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>2021</v>
+      </c>
+      <c r="B269" t="s">
+        <v>833</v>
+      </c>
+      <c r="C269">
+        <v>16473</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>2021</v>
+      </c>
+      <c r="B270" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>2021</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>33918</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>2021</v>
+      </c>
+      <c r="B272" t="s">
+        <v>830</v>
+      </c>
+      <c r="C272">
+        <v>58147</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>2021</v>
+      </c>
+      <c r="B273" t="s">
+        <v>834</v>
+      </c>
+      <c r="C273">
+        <v>37574</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>2021</v>
+      </c>
+      <c r="B274" t="s">
+        <v>836</v>
+      </c>
+      <c r="C274">
+        <v>79809</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>2021</v>
+      </c>
+      <c r="B275" t="s">
+        <v>829</v>
+      </c>
+      <c r="C275">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>2021</v>
+      </c>
+      <c r="B276" t="s">
+        <v>833</v>
+      </c>
+      <c r="C276">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>2021</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>2021</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>2021</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>41527</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>2021</v>
+      </c>
+      <c r="B280" t="s">
+        <v>830</v>
+      </c>
+      <c r="C280">
+        <v>57209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>2021</v>
+      </c>
+      <c r="B281" t="s">
+        <v>834</v>
+      </c>
+      <c r="C281">
+        <v>33186</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>2021</v>
+      </c>
+      <c r="B282" t="s">
+        <v>836</v>
+      </c>
+      <c r="C282">
+        <v>107033</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>2021</v>
+      </c>
+      <c r="B283" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>2021</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>25679</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>2021</v>
+      </c>
+      <c r="B285" t="s">
+        <v>833</v>
+      </c>
+      <c r="C285">
+        <v>25679</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>2021</v>
+      </c>
+      <c r="B286" t="s">
+        <v>23</v>
+      </c>
+      <c r="C286">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>2021</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>16612</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>2021</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>39611</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>2021</v>
+      </c>
+      <c r="B289" t="s">
+        <v>830</v>
+      </c>
+      <c r="C289">
+        <v>34379</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>2021</v>
+      </c>
+      <c r="B290" t="s">
+        <v>834</v>
+      </c>
+      <c r="C290">
+        <v>21175</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>2021</v>
+      </c>
+      <c r="B291" t="s">
+        <v>838</v>
+      </c>
+      <c r="C291">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>2020</v>
+      </c>
+      <c r="B292" t="s">
+        <v>837</v>
+      </c>
+      <c r="C292">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>2020</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2020</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294">
+        <v>21650</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>2020</v>
+      </c>
+      <c r="B295" t="s">
+        <v>833</v>
+      </c>
+      <c r="C295">
+        <v>23083</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>2020</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>2020</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>16095</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>2020</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>18337</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2020</v>
+      </c>
+      <c r="B299" t="s">
+        <v>830</v>
+      </c>
+      <c r="C299">
+        <v>36486</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>2020</v>
+      </c>
+      <c r="B300" t="s">
+        <v>834</v>
+      </c>
+      <c r="C300">
+        <v>19894</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>2020</v>
+      </c>
+      <c r="B301" t="s">
+        <v>838</v>
+      </c>
+      <c r="C301">
+        <v>57779</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>2020</v>
+      </c>
+      <c r="B302" t="s">
+        <v>837</v>
+      </c>
+      <c r="C302">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>2020</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>2020</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>2020</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>20806</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>2020</v>
+      </c>
+      <c r="B306" t="s">
+        <v>833</v>
+      </c>
+      <c r="C306">
+        <v>26871</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2020</v>
+      </c>
+      <c r="B307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>2020</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>21570</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>2020</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>14158</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>2020</v>
+      </c>
+      <c r="B310" t="s">
+        <v>830</v>
+      </c>
+      <c r="C310">
+        <v>30147</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>2020</v>
+      </c>
+      <c r="B311" t="s">
+        <v>834</v>
+      </c>
+      <c r="C311">
+        <v>23014</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>2020</v>
+      </c>
+      <c r="B312" t="s">
+        <v>837</v>
+      </c>
+      <c r="C312">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>2020</v>
+      </c>
+      <c r="B313" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>2020</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>2020</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315">
+        <v>13155</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>2020</v>
+      </c>
+      <c r="B316" t="s">
+        <v>833</v>
+      </c>
+      <c r="C316">
+        <v>18525</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>2020</v>
+      </c>
+      <c r="B317" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2020</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>19234</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>2020</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>18610</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>2020</v>
+      </c>
+      <c r="B320" t="s">
+        <v>830</v>
+      </c>
+      <c r="C320">
+        <v>26143</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>2020</v>
+      </c>
+      <c r="B321" t="s">
+        <v>834</v>
+      </c>
+      <c r="C321">
+        <v>15976</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>2020</v>
+      </c>
+      <c r="B322" t="s">
+        <v>837</v>
+      </c>
+      <c r="C322">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2020</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2020</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>2020</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325">
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>2020</v>
+      </c>
+      <c r="B326" t="s">
+        <v>833</v>
+      </c>
+      <c r="C326">
+        <v>28005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>2020</v>
+      </c>
+      <c r="B327" t="s">
+        <v>23</v>
+      </c>
+      <c r="C327">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>2020</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>28528</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>2020</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>20070</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>2020</v>
+      </c>
+      <c r="B330" t="s">
+        <v>830</v>
+      </c>
+      <c r="C330">
+        <v>18061</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>2020</v>
+      </c>
+      <c r="B331" t="s">
+        <v>834</v>
+      </c>
+      <c r="C331">
+        <v>31562</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>2019</v>
+      </c>
+      <c r="B332" t="s">
+        <v>837</v>
+      </c>
+      <c r="C332">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>2019</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>2019</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>2019</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>19947</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>2019</v>
+      </c>
+      <c r="B336" t="s">
+        <v>833</v>
+      </c>
+      <c r="C336">
+        <v>18401</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>2019</v>
+      </c>
+      <c r="B337" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>2019</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>2019</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>16584</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>2019</v>
+      </c>
+      <c r="B340" t="s">
+        <v>830</v>
+      </c>
+      <c r="C340">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>2019</v>
+      </c>
+      <c r="B341" t="s">
+        <v>834</v>
+      </c>
+      <c r="C341">
+        <v>34089</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>2019</v>
+      </c>
+      <c r="B342" t="s">
+        <v>837</v>
+      </c>
+      <c r="C342">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>2019</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>2019</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>2019</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <v>38088</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>2019</v>
+      </c>
+      <c r="B346" t="s">
+        <v>833</v>
+      </c>
+      <c r="C346">
+        <v>20709</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>2019</v>
+      </c>
+      <c r="B347" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>2019</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <v>31393</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>2019</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>20763</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>2019</v>
+      </c>
+      <c r="B350" t="s">
+        <v>830</v>
+      </c>
+      <c r="C350">
+        <v>19268</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>2019</v>
+      </c>
+      <c r="B351" t="s">
+        <v>837</v>
+      </c>
+      <c r="C351">
+        <v>15784</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>2019</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2019</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>2019</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354">
+        <v>52419</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2019</v>
+      </c>
+      <c r="B355" t="s">
+        <v>833</v>
+      </c>
+      <c r="C355">
+        <v>28739</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>2019</v>
+      </c>
+      <c r="B356" t="s">
+        <v>839</v>
+      </c>
+      <c r="C356">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>2019</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357">
+        <v>42572</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>2019</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>20781</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>2019</v>
+      </c>
+      <c r="B359" t="s">
+        <v>837</v>
+      </c>
+      <c r="C359">
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>2019</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>2019</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>2019</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362">
+        <v>50327</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>2019</v>
+      </c>
+      <c r="B363" t="s">
+        <v>833</v>
+      </c>
+      <c r="C363">
+        <v>27019</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>2019</v>
+      </c>
+      <c r="B364" t="s">
+        <v>840</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>2019</v>
+      </c>
+      <c r="B365" t="s">
+        <v>841</v>
+      </c>
+      <c r="C365">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>2019</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>2019</v>
+      </c>
+      <c r="B367" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>16457</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>2018</v>
+      </c>
+      <c r="B368" t="s">
+        <v>837</v>
+      </c>
+      <c r="C368">
+        <v>38465</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>2018</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>2018</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>2018</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371">
+        <v>57033</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>2018</v>
+      </c>
+      <c r="B372" t="s">
+        <v>833</v>
+      </c>
+      <c r="C372">
+        <v>66455</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>2018</v>
+      </c>
+      <c r="B373" t="s">
+        <v>840</v>
+      </c>
+      <c r="C373">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>2018</v>
+      </c>
+      <c r="B374" t="s">
+        <v>841</v>
+      </c>
+      <c r="C374">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>2018</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375">
+        <v>141918</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>2018</v>
+      </c>
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>27368</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>2018</v>
+      </c>
+      <c r="B377" t="s">
+        <v>837</v>
+      </c>
+      <c r="C377">
+        <v>32903</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>2018</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>2018</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>2018</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380">
+        <v>20945</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>2018</v>
+      </c>
+      <c r="B381" t="s">
+        <v>833</v>
+      </c>
+      <c r="C381">
+        <v>67537</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2018</v>
+      </c>
+      <c r="B382" t="s">
+        <v>840</v>
+      </c>
+      <c r="C382">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>2018</v>
+      </c>
+      <c r="B383" t="s">
+        <v>841</v>
+      </c>
+      <c r="C383">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>2018</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384">
+        <v>78141</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>2018</v>
+      </c>
+      <c r="B385" t="s">
+        <v>837</v>
+      </c>
+      <c r="C385">
+        <v>12829</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>2018</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386">
+        <v>10449</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>2018</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>2018</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>24453</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>2018</v>
+      </c>
+      <c r="B389" t="s">
+        <v>833</v>
+      </c>
+      <c r="C389">
+        <v>34395</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>2018</v>
+      </c>
+      <c r="B390" t="s">
+        <v>840</v>
+      </c>
+      <c r="C390">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>2018</v>
+      </c>
+      <c r="B391" t="s">
+        <v>841</v>
+      </c>
+      <c r="C391">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>2018</v>
+      </c>
+      <c r="B392" t="s">
+        <v>837</v>
+      </c>
+      <c r="C392">
+        <v>14565</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>2018</v>
+      </c>
+      <c r="B393" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>2018</v>
+      </c>
+      <c r="B394" t="s">
+        <v>842</v>
+      </c>
+      <c r="C394">
+        <v>72109</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>2018</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>2018</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396">
+        <v>25150</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>2018</v>
+      </c>
+      <c r="B397" t="s">
+        <v>833</v>
+      </c>
+      <c r="C397">
+        <v>38909</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>2018</v>
+      </c>
+      <c r="B398" t="s">
+        <v>840</v>
+      </c>
+      <c r="C398">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>2018</v>
+      </c>
+      <c r="B399" t="s">
+        <v>841</v>
+      </c>
+      <c r="C399">
+        <v>23849</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>2017</v>
+      </c>
+      <c r="B400" t="s">
+        <v>837</v>
+      </c>
+      <c r="C400">
+        <v>10792</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>2017</v>
+      </c>
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>2017</v>
+      </c>
+      <c r="B402" t="s">
+        <v>842</v>
+      </c>
+      <c r="C402">
+        <v>54577</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>2017</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>2017</v>
+      </c>
+      <c r="B404" t="s">
+        <v>843</v>
+      </c>
+      <c r="C404">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>2017</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405">
+        <v>17360</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>2017</v>
+      </c>
+      <c r="B406" t="s">
+        <v>833</v>
+      </c>
+      <c r="C406">
+        <v>32593</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>2017</v>
+      </c>
+      <c r="B407" t="s">
+        <v>837</v>
+      </c>
+      <c r="C407">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>2017</v>
+      </c>
+      <c r="B408" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>2017</v>
+      </c>
+      <c r="B409" t="s">
+        <v>842</v>
+      </c>
+      <c r="C409">
+        <v>48960</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>2017</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>2017</v>
+      </c>
+      <c r="B411" t="s">
+        <v>843</v>
+      </c>
+      <c r="C411">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>2017</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412">
+        <v>18985</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>2017</v>
+      </c>
+      <c r="B413" t="s">
+        <v>837</v>
+      </c>
+      <c r="C413">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>2017</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>14896</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>2017</v>
+      </c>
+      <c r="B415" t="s">
+        <v>842</v>
+      </c>
+      <c r="C415">
+        <v>40801</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>2017</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>2017</v>
+      </c>
+      <c r="B417" t="s">
+        <v>843</v>
+      </c>
+      <c r="C417">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>2017</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418">
+        <v>20146</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>2017</v>
+      </c>
+      <c r="B419" t="s">
+        <v>837</v>
+      </c>
+      <c r="C419">
+        <v>9811</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>2017</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420">
+        <v>13436</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>2017</v>
+      </c>
+      <c r="B421" t="s">
+        <v>842</v>
+      </c>
+      <c r="C421">
+        <v>66198</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>2017</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422">
+        <v>10315</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>2017</v>
+      </c>
+      <c r="B423" t="s">
+        <v>843</v>
+      </c>
+      <c r="C423">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>2017</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424">
+        <v>18237</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>2016</v>
+      </c>
+      <c r="B425" t="s">
+        <v>837</v>
+      </c>
+      <c r="C425">
+        <v>12754</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>2016</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>13277</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>2016</v>
+      </c>
+      <c r="B427" t="s">
+        <v>842</v>
+      </c>
+      <c r="C427">
+        <v>77398</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>2016</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428">
+        <v>17602</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>2016</v>
+      </c>
+      <c r="B429" t="s">
+        <v>843</v>
+      </c>
+      <c r="C429">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>2016</v>
+      </c>
+      <c r="B430" t="s">
+        <v>844</v>
+      </c>
+      <c r="C430">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>2016</v>
+      </c>
+      <c r="B431" t="s">
+        <v>837</v>
+      </c>
+      <c r="C431">
+        <v>9207</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>2016</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432">
+        <v>9566</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>2016</v>
+      </c>
+      <c r="B433" t="s">
+        <v>842</v>
+      </c>
+      <c r="C433">
+        <v>63754</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>2016</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434">
+        <v>10573</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>2016</v>
+      </c>
+      <c r="B435" t="s">
+        <v>843</v>
+      </c>
+      <c r="C435">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>2016</v>
+      </c>
+      <c r="B436" t="s">
+        <v>844</v>
+      </c>
+      <c r="C436">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>2016</v>
+      </c>
+      <c r="B437" t="s">
+        <v>837</v>
+      </c>
+      <c r="C437">
+        <v>32073</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>2016</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438">
+        <v>18669</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>2016</v>
+      </c>
+      <c r="B439" t="s">
+        <v>842</v>
+      </c>
+      <c r="C439">
+        <v>63475</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>2016</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440">
+        <v>14403</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>2016</v>
+      </c>
+      <c r="B441" t="s">
+        <v>843</v>
+      </c>
+      <c r="C441">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>2016</v>
+      </c>
+      <c r="B442" t="s">
+        <v>844</v>
+      </c>
+      <c r="C442">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>2016</v>
+      </c>
+      <c r="B443" t="s">
+        <v>837</v>
+      </c>
+      <c r="C443">
+        <v>18716</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>2016</v>
+      </c>
+      <c r="B444" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444">
+        <v>18109</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>2016</v>
+      </c>
+      <c r="B445" t="s">
+        <v>842</v>
+      </c>
+      <c r="C445">
+        <v>58834</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>2016</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446">
+        <v>22661</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>2016</v>
+      </c>
+      <c r="B447" t="s">
+        <v>843</v>
+      </c>
+      <c r="C447">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>2016</v>
+      </c>
+      <c r="B448" t="s">
+        <v>844</v>
+      </c>
+      <c r="C448">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>2015</v>
+      </c>
+      <c r="B449" t="s">
+        <v>845</v>
+      </c>
+      <c r="C449">
+        <v>34432</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>2015</v>
+      </c>
+      <c r="B450" t="s">
+        <v>845</v>
+      </c>
+      <c r="C450">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>2015</v>
+      </c>
+      <c r="B451" t="s">
+        <v>846</v>
+      </c>
+      <c r="C451">
+        <v>17056</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>2015</v>
+      </c>
+      <c r="B452" t="s">
+        <v>847</v>
+      </c>
+      <c r="C452">
+        <v>27172</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>2015</v>
+      </c>
+      <c r="B453" t="s">
+        <v>848</v>
+      </c>
+      <c r="C453">
+        <v>62881</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>2015</v>
+      </c>
+      <c r="B454" t="s">
+        <v>849</v>
+      </c>
+      <c r="C454">
+        <v>23118</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>2015</v>
+      </c>
+      <c r="B455" t="s">
+        <v>850</v>
+      </c>
+      <c r="C455">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>2015</v>
+      </c>
+      <c r="B456" t="s">
+        <v>845</v>
+      </c>
+      <c r="C456">
+        <v>59506</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>2015</v>
+      </c>
+      <c r="B457" t="s">
+        <v>845</v>
+      </c>
+      <c r="C457">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>2015</v>
+      </c>
+      <c r="B458" t="s">
+        <v>837</v>
+      </c>
+      <c r="C458">
+        <v>22640</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>2015</v>
+      </c>
+      <c r="B459" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459">
+        <v>40643</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>2015</v>
+      </c>
+      <c r="B460" t="s">
+        <v>851</v>
+      </c>
+      <c r="C460">
+        <v>90274</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>2015</v>
+      </c>
+      <c r="B461" t="s">
+        <v>849</v>
+      </c>
+      <c r="C461">
+        <v>34892</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>2015</v>
+      </c>
+      <c r="B462" t="s">
+        <v>26</v>
+      </c>
+      <c r="C462">
+        <v>83703</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>2015</v>
+      </c>
+      <c r="B463" t="s">
+        <v>26</v>
+      </c>
+      <c r="C463">
+        <v>11830</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>2015</v>
+      </c>
+      <c r="B464" t="s">
+        <v>837</v>
+      </c>
+      <c r="C464">
+        <v>22112</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>2015</v>
+      </c>
+      <c r="B465" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465">
+        <v>108570</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>2015</v>
+      </c>
+      <c r="B466" t="s">
+        <v>842</v>
+      </c>
+      <c r="C466">
+        <v>76421</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>2015</v>
+      </c>
+      <c r="B467" t="s">
+        <v>26</v>
+      </c>
+      <c r="C467">
+        <v>106222</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>2015</v>
+      </c>
+      <c r="B468" t="s">
+        <v>26</v>
+      </c>
+      <c r="C468">
+        <v>11408</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>2015</v>
+      </c>
+      <c r="B469" t="s">
+        <v>837</v>
+      </c>
+      <c r="C469">
+        <v>21961</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>2015</v>
+      </c>
+      <c r="B470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470">
+        <v>60813</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>2014</v>
+      </c>
+      <c r="B471" t="s">
+        <v>26</v>
+      </c>
+      <c r="C471">
+        <v>118910</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>2014</v>
+      </c>
+      <c r="B472" t="s">
+        <v>26</v>
+      </c>
+      <c r="C472">
+        <v>9897</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>2014</v>
+      </c>
+      <c r="B473" t="s">
+        <v>837</v>
+      </c>
+      <c r="C473">
+        <v>32903</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>2014</v>
+      </c>
+      <c r="B474" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474">
+        <v>38707</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>2014</v>
+      </c>
+      <c r="B475" t="s">
+        <v>26</v>
+      </c>
+      <c r="C475">
+        <v>129234</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>2014</v>
+      </c>
+      <c r="B476" t="s">
+        <v>26</v>
+      </c>
+      <c r="C476">
+        <v>10757</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>2014</v>
+      </c>
+      <c r="B477" t="s">
+        <v>837</v>
+      </c>
+      <c r="C477">
+        <v>38035</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>2022</v>
+      </c>
+      <c r="B478" t="s">
+        <v>829</v>
+      </c>
+      <c r="C478">
+        <v>229</v>
+      </c>
+      <c r="D478">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>2022</v>
+      </c>
+      <c r="B479" t="s">
+        <v>23</v>
+      </c>
+      <c r="C479">
+        <v>532</v>
+      </c>
+      <c r="D479">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>2022</v>
+      </c>
+      <c r="B480" t="s">
+        <v>830</v>
+      </c>
+      <c r="C480">
+        <v>21098</v>
+      </c>
+      <c r="D480">
+        <v>907032</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>2022</v>
+      </c>
+      <c r="B481" t="s">
+        <v>831</v>
+      </c>
+      <c r="C481">
+        <v>10420</v>
+      </c>
+      <c r="D481">
+        <v>1488596</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>2022</v>
+      </c>
+      <c r="B482" t="s">
+        <v>829</v>
+      </c>
+      <c r="C482">
+        <v>203</v>
+      </c>
+      <c r="D482">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>2022</v>
+      </c>
+      <c r="B483" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483">
+        <v>300</v>
+      </c>
+      <c r="D483">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>2022</v>
+      </c>
+      <c r="B484" t="s">
+        <v>830</v>
+      </c>
+      <c r="C484">
+        <v>15220</v>
+      </c>
+      <c r="D484">
+        <v>907032</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>2022</v>
+      </c>
+      <c r="B485" t="s">
+        <v>831</v>
+      </c>
+      <c r="C485">
+        <v>10152</v>
+      </c>
+      <c r="D485">
+        <v>1488596</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>2022</v>
+      </c>
+      <c r="B486" t="s">
+        <v>832</v>
+      </c>
+      <c r="C486">
+        <v>17933</v>
+      </c>
+      <c r="D486">
+        <v>994079</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>2022</v>
+      </c>
+      <c r="B487" t="s">
+        <v>829</v>
+      </c>
+      <c r="C487">
+        <v>319</v>
+      </c>
+      <c r="D487">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>2022</v>
+      </c>
+      <c r="B488" t="s">
+        <v>23</v>
+      </c>
+      <c r="C488">
+        <v>545</v>
+      </c>
+      <c r="D488">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>2022</v>
+      </c>
+      <c r="B489" t="s">
+        <v>830</v>
+      </c>
+      <c r="C489">
+        <v>40248</v>
+      </c>
+      <c r="D489">
+        <v>917218</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>2022</v>
+      </c>
+      <c r="B490" t="s">
+        <v>831</v>
+      </c>
+      <c r="C490">
+        <v>20989</v>
+      </c>
+      <c r="D490">
+        <v>1488596</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>2022</v>
+      </c>
+      <c r="B491" t="s">
+        <v>832</v>
+      </c>
+      <c r="C491">
+        <v>20694</v>
+      </c>
+      <c r="D491">
+        <v>1290978</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>2022</v>
+      </c>
+      <c r="B492" t="s">
+        <v>829</v>
+      </c>
+      <c r="C492">
+        <v>566</v>
+      </c>
+      <c r="D492">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>2022</v>
+      </c>
+      <c r="B493" t="s">
+        <v>23</v>
+      </c>
+      <c r="C493">
+        <v>713</v>
+      </c>
+      <c r="D493">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>2022</v>
+      </c>
+      <c r="B494" t="s">
+        <v>3</v>
+      </c>
+      <c r="C494">
+        <v>27149</v>
+      </c>
+      <c r="D494">
+        <v>1824542</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>2022</v>
+      </c>
+      <c r="B495" t="s">
+        <v>830</v>
+      </c>
+      <c r="C495">
+        <v>55888</v>
+      </c>
+      <c r="D495">
+        <v>918154</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>2022</v>
+      </c>
+      <c r="B496" t="s">
+        <v>831</v>
+      </c>
+      <c r="C496">
+        <v>22909</v>
+      </c>
+      <c r="D496">
+        <v>1581031</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>2022</v>
+      </c>
+      <c r="B497" t="s">
+        <v>832</v>
+      </c>
+      <c r="C497">
+        <v>47480</v>
+      </c>
+      <c r="D497">
+        <v>1941118</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>2021</v>
+      </c>
+      <c r="B498" t="s">
+        <v>829</v>
+      </c>
+      <c r="C498">
+        <v>944</v>
+      </c>
+      <c r="D498">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>2021</v>
+      </c>
+      <c r="B499" t="s">
+        <v>833</v>
+      </c>
+      <c r="C499">
+        <v>15289</v>
+      </c>
+      <c r="D499">
+        <v>449951</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>2021</v>
+      </c>
+      <c r="B500" t="s">
+        <v>23</v>
+      </c>
+      <c r="C500">
+        <v>1648</v>
+      </c>
+      <c r="D500">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>2021</v>
+      </c>
+      <c r="B501" t="s">
+        <v>3</v>
+      </c>
+      <c r="C501">
+        <v>34466</v>
+      </c>
+      <c r="D501">
+        <v>1824542</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>2021</v>
+      </c>
+      <c r="B502" t="s">
+        <v>830</v>
+      </c>
+      <c r="C502">
+        <v>59742</v>
+      </c>
+      <c r="D502">
+        <v>1436456</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>2021</v>
+      </c>
+      <c r="B503" t="s">
+        <v>834</v>
+      </c>
+      <c r="C503">
+        <v>42859</v>
+      </c>
+      <c r="D503">
+        <v>1694017</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>2021</v>
+      </c>
+      <c r="B504" t="s">
+        <v>832</v>
+      </c>
+      <c r="C504">
+        <v>45209</v>
+      </c>
+      <c r="D504">
+        <v>1941118</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>2021</v>
+      </c>
+      <c r="B505" t="s">
+        <v>835</v>
+      </c>
+      <c r="C505">
+        <v>4203</v>
+      </c>
+      <c r="D505">
+        <v>14541</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>2021</v>
+      </c>
+      <c r="B506" t="s">
+        <v>829</v>
+      </c>
+      <c r="C506">
+        <v>1618</v>
+      </c>
+      <c r="D506">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>2021</v>
+      </c>
+      <c r="B507" t="s">
+        <v>833</v>
+      </c>
+      <c r="C507">
+        <v>16473</v>
+      </c>
+      <c r="D507">
+        <v>449951</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>2021</v>
+      </c>
+      <c r="B508" t="s">
+        <v>23</v>
+      </c>
+      <c r="C508">
+        <v>2025</v>
+      </c>
+      <c r="D508">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>2021</v>
+      </c>
+      <c r="B509" t="s">
+        <v>3</v>
+      </c>
+      <c r="C509">
+        <v>33918</v>
+      </c>
+      <c r="D509">
+        <v>1824542</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>2021</v>
+      </c>
+      <c r="B510" t="s">
+        <v>830</v>
+      </c>
+      <c r="C510">
+        <v>58147</v>
+      </c>
+      <c r="D510">
+        <v>1915274</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>2021</v>
+      </c>
+      <c r="B511" t="s">
+        <v>834</v>
+      </c>
+      <c r="C511">
+        <v>37574</v>
+      </c>
+      <c r="D511">
+        <v>1694017</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>2021</v>
+      </c>
+      <c r="B512" t="s">
+        <v>836</v>
+      </c>
+      <c r="C512">
+        <v>79809</v>
+      </c>
+      <c r="D512">
+        <v>2911677</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>2021</v>
+      </c>
+      <c r="B513" t="s">
+        <v>829</v>
+      </c>
+      <c r="C513">
+        <v>1658</v>
+      </c>
+      <c r="D513">
+        <v>510142</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>2021</v>
+      </c>
+      <c r="B514" t="s">
+        <v>833</v>
+      </c>
+      <c r="C514">
+        <v>20176</v>
+      </c>
+      <c r="D514">
+        <v>449951</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>2021</v>
+      </c>
+      <c r="B515" t="s">
+        <v>23</v>
+      </c>
+      <c r="C515">
+        <v>2682</v>
+      </c>
+      <c r="D515">
+        <v>311490</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>2021</v>
+      </c>
+      <c r="B516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516">
+        <v>3491</v>
+      </c>
+      <c r="D516">
+        <v>275034</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>2021</v>
+      </c>
+      <c r="B517" t="s">
+        <v>3</v>
+      </c>
+      <c r="C517">
+        <v>41527</v>
+      </c>
+      <c r="D517">
+        <v>1824542</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>2021</v>
+      </c>
+      <c r="B518" t="s">
+        <v>830</v>
+      </c>
+      <c r="C518">
+        <v>57209</v>
+      </c>
+      <c r="D518">
+        <v>1915274</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>2021</v>
+      </c>
+      <c r="B519" t="s">
+        <v>834</v>
+      </c>
+      <c r="C519">
+        <v>33186</v>
+      </c>
+      <c r="D519">
+        <v>1694017</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>2021</v>
+      </c>
+      <c r="B520" t="s">
+        <v>836</v>
+      </c>
+      <c r="C520">
+        <v>107033</v>
+      </c>
+      <c r="D520">
+        <v>2911677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasg17/Documents/GitHub/Health-Innovation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD652C06-51BB-E048-8806-824B41081D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{457C242F-85BA-1B4E-96EC-7A7AFC6B6F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="760" windowWidth="28060" windowHeight="17440" xr2:uid="{7B871D28-6C56-6A4C-8DC7-F3E0A8269B8A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4827" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="457">
   <si>
     <t>Year</t>
   </si>
@@ -1762,7 +1762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF57BEF-A7F1-EB4D-BEC9-B2B3C82B4989}">
   <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="G239" sqref="G239"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -42023,7 +42025,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF1BB6E-2638-6F4C-AE3A-D3BA1AF8B8FD}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -42745,6 +42747,108 @@
         <v>7158647</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>230736820</v>
+      </c>
+      <c r="E43">
+        <v>6727021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>189311347</v>
+      </c>
+      <c r="E44">
+        <v>2788912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>521901338</v>
+      </c>
+      <c r="E45">
+        <v>13727021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>172075870</v>
+      </c>
+      <c r="E46">
+        <v>2788912</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>543306741</v>
+      </c>
+      <c r="E47">
+        <v>16208435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>168924400</v>
+      </c>
+      <c r="E48">
+        <v>2788912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
